--- a/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
+++ b/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCC85E-C61F-45FC-B997-31965D1C4F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{18BCC85E-C61F-45FC-B997-31965D1C4F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9B3B3C7-3AAC-4744-8416-396A897663E1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Kleuren</t>
   </si>
@@ -77,9 +77,6 @@
     <t>checken nieuwe publicatie</t>
   </si>
   <si>
-    <t>#502</t>
-  </si>
-  <si>
     <t>Check op</t>
   </si>
   <si>
@@ -111,13 +108,91 @@
   </si>
   <si>
     <t>microstation nummer moet nog mee in de query</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IW</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>OV</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>actie rioleringen / wacht op imports</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>VH</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>VW</t>
+  </si>
+  <si>
+    <t>check volledigheid imports</t>
+  </si>
+  <si>
+    <t>verwerk imports</t>
+  </si>
+  <si>
+    <t>actie warmtenet / verwerk imports</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>alle bestanden opnieuw uitdraaienb als concept op de juiste plaats staat</t>
+  </si>
+  <si>
+    <t>#510</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +200,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +226,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,10 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -496,25 +598,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE5BC04-66D3-4260-9BBA-96810A46C89E}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -529,21 +633,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -551,11 +653,11 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -563,11 +665,11 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -575,118 +677,274 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
+++ b/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{18BCC85E-C61F-45FC-B997-31965D1C4F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9B3B3C7-3AAC-4744-8416-396A897663E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1BE91-936E-438E-8042-AF7A927D64FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Kleuren</t>
   </si>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,8 +734,17 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">

--- a/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
+++ b/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1BE91-936E-438E-8042-AF7A927D64FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ABC692-B2DC-4E02-9B26-82B1775FEA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Kleuren</t>
   </si>
@@ -185,23 +185,17 @@
     <t>alle bestanden opnieuw uitdraaienb als concept op de juiste plaats staat</t>
   </si>
   <si>
-    <t>#510</t>
+    <t>nvt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,7 +234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -601,7 +595,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,8 +647,8 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -685,12 +679,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -721,12 +716,17 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -750,15 +750,27 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">

--- a/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
+++ b/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ABC692-B2DC-4E02-9B26-82B1775FEA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4438C8D3-F49E-491D-882F-D028C724B00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'[1]symbolen-concept-5.1'!$I$28:$I$1449</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>Kleuren</t>
   </si>
@@ -68,9 +75,6 @@
     <t>relatiesArceringen</t>
   </si>
   <si>
-    <t>compleet</t>
-  </si>
-  <si>
     <t>Symbolenbestanden</t>
   </si>
   <si>
@@ -185,7 +189,133 @@
     <t>alle bestanden opnieuw uitdraaienb als concept op de juiste plaats staat</t>
   </si>
   <si>
-    <t>nvt</t>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ALgemeen</t>
+  </si>
+  <si>
+    <t>Assen en Metrering</t>
+  </si>
+  <si>
+    <t>BetonConstructies</t>
+  </si>
+  <si>
+    <t>BermbeveiligingsVoorzieningen</t>
+  </si>
+  <si>
+    <t>Energievoorziening Spoor</t>
+  </si>
+  <si>
+    <t>FunderingsConstructies</t>
+  </si>
+  <si>
+    <t>FaunaVoorzieningen</t>
+  </si>
+  <si>
+    <t>GrondkerendeConstructies</t>
+  </si>
+  <si>
+    <t>GrondKeringen</t>
+  </si>
+  <si>
+    <t>GRoen</t>
+  </si>
+  <si>
+    <t>GrondWerk</t>
+  </si>
+  <si>
+    <t>HoutConstructies</t>
+  </si>
+  <si>
+    <t>HUlpconstructies</t>
+  </si>
+  <si>
+    <t>InrichtingsElementen</t>
+  </si>
+  <si>
+    <t>Installaties Spoor</t>
+  </si>
+  <si>
+    <t>Installaties Vaarweg</t>
+  </si>
+  <si>
+    <t>Installaties Weg</t>
+  </si>
+  <si>
+    <t>KunststofConstructies</t>
+  </si>
+  <si>
+    <t>Kadastrale informatie en Grenzen</t>
+  </si>
+  <si>
+    <t>Kabels en Leidingen</t>
+  </si>
+  <si>
+    <t>KunstWerken</t>
+  </si>
+  <si>
+    <t>MechanischeConstructies</t>
+  </si>
+  <si>
+    <t>Milieu en Onderzoek</t>
+  </si>
+  <si>
+    <t>MetselWerk</t>
+  </si>
+  <si>
+    <t>Oever- en Bodembescherming</t>
+  </si>
+  <si>
+    <t>OnderGrond</t>
+  </si>
+  <si>
+    <t>Openbare Verlichting</t>
+  </si>
+  <si>
+    <t>RIolering</t>
+  </si>
+  <si>
+    <t>SpoorBaan</t>
+  </si>
+  <si>
+    <t>StaalConstructies</t>
+  </si>
+  <si>
+    <t>VerHardingen</t>
+  </si>
+  <si>
+    <t>Verkeersmaatregelen Vaarweg</t>
+  </si>
+  <si>
+    <t>Verkeersmaatregelen Weg</t>
+  </si>
+  <si>
+    <t>WaterHuishouding</t>
+  </si>
+  <si>
+    <t>Voor alle hoofdgroepen</t>
   </si>
 </sst>
 </file>
@@ -201,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,12 +362,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -251,13 +375,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -273,6 +396,5693 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="symbolen-concept-5.1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="I28" t="str">
+            <v>B-SRI-KOLK_RWS_01-SO</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29" t="str">
+            <v>B-SRI-KOLK_RWS_02-SO</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>B-SRI-KOLK_RWS-SO</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
+            <v>B-SRI-KOLK_STRAAT_01-SO</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32" t="str">
+            <v>B-SRI-KOLK_STRAAT_02-SO</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33" t="str">
+            <v>B-SRI-KOLK_STRAAT_03-SO</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>B-SRI-KOLK_STRAAT-SO</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>B-SRI-KOLK_TEGELPAD-SO</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
+            <v>B-SRI-KOLK_TROTTOIR_01-SO</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37" t="str">
+            <v>B-SRI-KOLK_TROTTOIR_02-SO</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38" t="str">
+            <v>B-SRI-KOLK_TROTTOIR_03-SO</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39" t="str">
+            <v>B-SRI-KOLK_TROTTOIR-SO</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40" t="str">
+            <v>B-SRI-KOLK_ZANDVANG_01-SO</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41" t="str">
+            <v>B-SRI-KOLK_ZANDVANG_02-SO</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42" t="str">
+            <v>B-SRI-KOLK_ZANDVANG-SO</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43" t="str">
+            <v>B-SRI-PUT_BETON-SO</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44" t="str">
+            <v>B-SRI-PUT_DRAIN_01-SO</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>B-SRI-PUT_DRAIN_DOORSPUIT_01-SO</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
+            <v>B-SRI-PUT_DRAIN_DOORSPUIT-SO</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47" t="str">
+            <v>B-SRI-PUT_DRAIN_KUNSTSTOF_DOORSPUIT-SO</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48" t="str">
+            <v>B-SRI-PUT_DRAIN_KUNSTSTOF-SO</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49" t="str">
+            <v>B-SRI-PUT_DRAIN-SO</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50" t="str">
+            <v>B-SRI-PUT_DWA_01-SO</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51" t="str">
+            <v>B-SRI-PUT_DWA_KUNSTSTOF-SO</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52" t="str">
+            <v>B-SRI-PUT_DWA-SO</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53" t="str">
+            <v>B-SRI-PUT_GWA_01-SO</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54" t="str">
+            <v>B-SRI-PUT_GWA_KUNSTSTOF-SO</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55" t="str">
+            <v>B-SRI-PUT_GWA-SO</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56" t="str">
+            <v>B-SRI-PUT_HWA_01-SO</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57" t="str">
+            <v>B-SRI-PUT_HWA_KUNSTSTOF-SO</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58" t="str">
+            <v>B-SRI-PUT_HWA-SO</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59" t="str">
+            <v>B-SRI-PUT_ITR_01-SO</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60" t="str">
+            <v>B-SRI-PUT_ITR_KUNSTSTOF-SO</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61" t="str">
+            <v>B-SRI-PUT_ITR-SO</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62" t="str">
+            <v>B-SRI-PUT_KOPPELPUT-SO</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63" t="str">
+            <v>B-SRI-PUT_KUNSTSTOF-SO</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64" t="str">
+            <v>B-SRI-PUT_METSELWERK-SO</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65" t="str">
+            <v>B-SRI-PUT_OVERSTORT-SO</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66" t="str">
+            <v>B-SRI-PUT_POMPPUT_01-SO</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67" t="str">
+            <v>B-SRI-PUT_POMPPUT-SO</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68" t="str">
+            <v>B-SRI-PUT_SWA_KUNSTSTOF-SO</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69" t="str">
+            <v>B-SRI-PUT_SWA-SO</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70" t="str">
+            <v>B-SRI-UITLAATCONSTRUCTIE_UITSTROOMVOORZIENING-SO</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="I293" t="str">
+            <v>SAL-AANKLEDING_AUTO1_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="I294" t="str">
+            <v>SAL-AANKLEDING_AUTO1_BOVENAANZICHT</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="I295" t="str">
+            <v>SAL-AANKLEDING_AUTO1_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="I296" t="str">
+            <v>SAL-AANKLEDING_AUTO1_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="I297" t="str">
+            <v>SAL-AANKLEDING_AUTO2_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="I298" t="str">
+            <v>SAL-AANKLEDING_AUTO2_BOVENAANZICHT</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="I299" t="str">
+            <v>SAL-AANKLEDING_AUTO2_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="I300" t="str">
+            <v>SAL-AANKLEDING_AUTO2_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="I301" t="str">
+            <v>SAL-AANKLEDING_BUS_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="I302" t="str">
+            <v>SAL-AANKLEDING_BUS_BOVENAANZICHT</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="I303" t="str">
+            <v>SAL-AANKLEDING_BUS_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="I304" t="str">
+            <v>SAL-AANKLEDING_BUS_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="I305" t="str">
+            <v>SAL-AANKLEDING_BUSJE1_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="I306" t="str">
+            <v>SAL-AANKLEDING_BUSJE1_BOVENAANZICHT</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="I307" t="str">
+            <v>SAL-AANKLEDING_BUSJE1_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="I308" t="str">
+            <v>SAL-AANKLEDING_BUSJE1_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="I309" t="str">
+            <v>SAL-AANKLEDING_FIETSER_BOVENAANZICHT</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="I310" t="str">
+            <v>SAL-AANKLEDING_FIETSER_MAN_RACEFIETS_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="I311" t="str">
+            <v>SAL-AANKLEDING_FIETSER_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="I312" t="str">
+            <v>SAL-AANKLEDING_FIETSTER_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="I313" t="str">
+            <v>SAL-AANKLEDING_FIETSTER_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="I314" t="str">
+            <v>SAL-AANKLEDING_MOTOR_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="I315" t="str">
+            <v>SAL-AANKLEDING_MOTOR_BOVENAANZICHT</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="I316" t="str">
+            <v>SAL-AANKLEDING_MOTOR_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="I317" t="str">
+            <v>SAL-AANKLEDING_MOTOR_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="I318" t="str">
+            <v>SAL-AANKLEDING_ROLSTOELER_MAN_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="I319" t="str">
+            <v>SAL-AANKLEDING_ROLSTOELER_MAN_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="I320" t="str">
+            <v>SAL-AANKLEDING_TRACTOR_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="I321" t="str">
+            <v>SAL-AANKLEDING_TRACTOR_BOVENAANZICHT</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="I322" t="str">
+            <v>SAL-AANKLEDING_TRACTOR_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="I323" t="str">
+            <v>SAL-AANKLEDING_TRACTOR_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="I324" t="str">
+            <v>SAL-AANKLEDING_TRAM_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="I325" t="str">
+            <v>SAL-AANKLEDING_TREIN1_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="I326" t="str">
+            <v>SAL-AANKLEDING_TREIN2_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="I327" t="str">
+            <v>SAL-AANKLEDING_TREIN3_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="I328" t="str">
+            <v>SAL-AANKLEDING_VOETGANGER_FAMILIE_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="I329" t="str">
+            <v>SAL-AANKLEDING_VOETGANGER_MAN_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="I330" t="str">
+            <v>SAL-AANKLEDING_VOETGANGER_MAN_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="I331" t="str">
+            <v>SAL-AANKLEDING_VOETGANGER_MK_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="I332" t="str">
+            <v>SAL-AANKLEDING_VOETGANGER_STEL_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="I333" t="str">
+            <v>SAL-AANKLEDING_VOETGANGER_VROUW_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="I334" t="str">
+            <v>SAL-AANKLEDING_VOETGANGER_VROUW_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="I335" t="str">
+            <v>SAL-AANKLEDING_VOETGANGER_VROUW_ZIJAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="I336" t="str">
+            <v>SAL-AANKLEDING_VOETGANGER3_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="I337" t="str">
+            <v>SAL-AANKLEDING_VRACHTAUTO_ACHTERAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="I338" t="str">
+            <v>SAL-AANKLEDING_VRACHTAUTO_BOVENAANZICHT_16.5</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="I339" t="str">
+            <v>SAL-AANKLEDING_VRACHTAUTO_BOVENAANZICHT_17.5</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="I340" t="str">
+            <v>SAL-AANKLEDING_VRACHTAUTO_BOVENAANZICHT_18.5</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="I341" t="str">
+            <v>SAL-AANKLEDING_VRACHTAUTO_BOVENAANZICHT_9.5</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="I342" t="str">
+            <v>SAL-AANKLEDING_VRACHTAUTO_VOORAANZICHT-D</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="I343" t="str">
+            <v>SAL-AANKLEDING_VRACHTAUTO_ZIJAANZICHT_17.5-D</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="I344" t="str">
+            <v>SAL-AANKLEDING_VRACHTAUTO_ZIJAANZICHT_18.5-D</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="I345" t="str">
+            <v>SAL-AANKLEDING_VRACHTAUTO_ZIJAANZICHT_9.5-D</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="I346" t="str">
+            <v>SAL-ORIENTATIE_NOORDPIJL-SO</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="I347" t="str">
+            <v>SAL-ORIENTATIE_OPNAMEPUNT_CAMERA-SO</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="I348" t="str">
+            <v>SAL-ORIENTATIE_RUITKRUIS-SO</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="I349" t="str">
+            <v>SAL-SCHAALBALK_M10</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="I350" t="str">
+            <v>SAL-SCHAALBALK_M100</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="I351" t="str">
+            <v>SAL-SCHAALBALK_M1000</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="I352" t="str">
+            <v>SAL-SCHAALBALK_M10000</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="I353" t="str">
+            <v>SAL-SCHAALBALK_M1250</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="I354" t="str">
+            <v>SAL-SCHAALBALK_M1500</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="I355" t="str">
+            <v>SAL-SCHAALBALK_M15000</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="I356" t="str">
+            <v>SAL-SCHAALBALK_M20</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="I357" t="str">
+            <v>SAL-SCHAALBALK_M200</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="I358" t="str">
+            <v>SAL-SCHAALBALK_M2000</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="I359" t="str">
+            <v>SAL-SCHAALBALK_M250</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="I360" t="str">
+            <v>SAL-SCHAALBALK_M2500</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="I361" t="str">
+            <v>SAL-SCHAALBALK_M50</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="I362" t="str">
+            <v>SAL-SCHAALBALK_M500</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="I363" t="str">
+            <v>SAL-SCHAALBALK_M5000</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="I364" t="str">
+            <v>SAL-SCHAALBALK_MM10</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="I365" t="str">
+            <v>SAL-SCHAALBALK_MM100</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="I366" t="str">
+            <v>SAL-SCHAALBALK_MM1000</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="I367" t="str">
+            <v>SAL-SCHAALBALK_MM10000</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="I368" t="str">
+            <v>SAL-SCHAALBALK_MM1250</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="I369" t="str">
+            <v>SAL-SCHAALBALK_MM1500</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="I370" t="str">
+            <v>SAL-SCHAALBALK_MM15000</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="I371" t="str">
+            <v>SAL-SCHAALBALK_MM20</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="I372" t="str">
+            <v>SAL-SCHAALBALK_MM200</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="I373" t="str">
+            <v>SAL-SCHAALBALK_MM2000</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="I374" t="str">
+            <v>SAL-SCHAALBALK_MM250</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="I375" t="str">
+            <v>SAL-SCHAALBALK_MM2500</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="I376" t="str">
+            <v>SAL-SCHAALBALK_MM50</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="I377" t="str">
+            <v>SAL-SCHAALBALK_MM500</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="I378" t="str">
+            <v>SAL-SCHAALBALK_MM5000</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="I379" t="str">
+            <v>SAL-TEKENBLAD_A0_1189X841-SOMM</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="I380" t="str">
+            <v>SAL-TEKENBLAD_A0_841X1050-SOMM</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="I381" t="str">
+            <v>SAL-TEKENBLAD_A0_841X1260-SOMM</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="I382" t="str">
+            <v>SAL-TEKENBLAD_A0_841X1470-SOMM</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="I383" t="str">
+            <v>SAL-TEKENBLAD_A0_841X1680-SOMM</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="I384" t="str">
+            <v>SAL-TEKENBLAD_A0_841X1890-SOMM</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="I385" t="str">
+            <v>SAL-TEKENBLAD_A0_841X2100-SOMM</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="I386" t="str">
+            <v>SAL-TEKENBLAD_A0_841X841-SOMM</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="I387" t="str">
+            <v>SAL-TEKENBLAD_A0-SOMM</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="I388" t="str">
+            <v>SAL-TEKENBLAD_A1.0-SOMM</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="I389" t="str">
+            <v>SAL-TEKENBLAD_A1_594X1050-SOMM</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="I390" t="str">
+            <v>SAL-TEKENBLAD_A1_594X1260-SOMM</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="I391" t="str">
+            <v>SAL-TEKENBLAD_A1_594X1470-SOMM</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="I392" t="str">
+            <v>SAL-TEKENBLAD_A1_594X1680-SOMM</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="I393" t="str">
+            <v>SAL-TEKENBLAD_A1_594X1890-SOMM</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="I394" t="str">
+            <v>SAL-TEKENBLAD_A1_594X2100-SOMM</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="I395" t="str">
+            <v>SAL-TEKENBLAD_A1_841X594-SOMM</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="I396" t="str">
+            <v>SAL-TEKENBLAD_A1-SOMM</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="I397" t="str">
+            <v>SAL-TEKENBLAD_A2.0-SOMM</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="I398" t="str">
+            <v>SAL-TEKENBLAD_A2.1-SOMM</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="I399" t="str">
+            <v>SAL-TEKENBLAD_A2_420X1050-SOMM</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="I400" t="str">
+            <v>SAL-TEKENBLAD_A2_420X1260-SOMM</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="I401" t="str">
+            <v>SAL-TEKENBLAD_A2_420X1470-SOMM</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="I402" t="str">
+            <v>SAL-TEKENBLAD_A2_420X1680-SOMM</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="I403" t="str">
+            <v>SAL-TEKENBLAD_A2_420X1890-SOMM</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="I404" t="str">
+            <v>SAL-TEKENBLAD_A2_420X2100-SOMM</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="I405" t="str">
+            <v>SAL-TEKENBLAD_A2_594X420-SOMM</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="I406" t="str">
+            <v>SAL-TEKENBLAD_A2-SOMM</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="I407" t="str">
+            <v>SAL-TEKENBLAD_A3.0-SOMM</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="I408" t="str">
+            <v>SAL-TEKENBLAD_A3.1-SOMM</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="I409" t="str">
+            <v>SAL-TEKENBLAD_A3.2-SOMM</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="I410" t="str">
+            <v>SAL-TEKENBLAD_A3_297X1050-SOMM</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="I411" t="str">
+            <v>SAL-TEKENBLAD_A3_297X1260-SOMM</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="I412" t="str">
+            <v>SAL-TEKENBLAD_A3_297X1470-SOMM</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="I413" t="str">
+            <v>SAL-TEKENBLAD_A3_297X1680-SOMM</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="I414" t="str">
+            <v>SAL-TEKENBLAD_A3_297X1890-SOMM</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="I415" t="str">
+            <v>SAL-TEKENBLAD_A3_297X2100-SOMM</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="I416" t="str">
+            <v>SAL-TEKENBLAD_A3_420X297-SOMM</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="I417" t="str">
+            <v>SAL-TEKENBLAD_A3-SOMM</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="I418" t="str">
+            <v>SAL-TEKENBLAD_A4_LIGGEND-SOMM</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="I419" t="str">
+            <v>SAL-TEKENBLAD_A4-SOMM</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="I420" t="str">
+            <v>SAL-TEKENBLAD_AANSLUITING_ANDER_BLAD-SO</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="I421" t="str">
+            <v>SAL-TEKENBLAD_AANSLUITING_ZELFDE_BLAD-SO</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="I422" t="str">
+            <v>SAL-VERWIJZING_AANZICHT_BOVEN-SO</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="I423" t="str">
+            <v>SAL-VERWIJZING_AANZICHT_LINKS-SO</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="I424" t="str">
+            <v>SAL-VERWIJZING_AANZICHT_ONDER-SO</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="I425" t="str">
+            <v>SAL-VERWIJZING_AANZICHT_RECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="I426" t="str">
+            <v>SAL-VERWIJZING_DETAIL_LINKSBOVEN-SO</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="I427" t="str">
+            <v>SAL-VERWIJZING_DETAIL_LINKSONDER-SO</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="I428" t="str">
+            <v>SAL-VERWIJZING_DETAIL_RECHTSBOVEN-SO</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="I429" t="str">
+            <v>SAL-VERWIJZING_DETAIL_RECHTSONDER-SO</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="I430" t="str">
+            <v>SAL-VERWIJZING_DOORSNEDE_BOVEN-SO</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="I431" t="str">
+            <v>SAL-VERWIJZING_DOORSNEDE_LINKS-SO</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="I432" t="str">
+            <v>SAL-VERWIJZING_DOORSNEDE_ONDER-SO</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="I433" t="str">
+            <v>SAL-VERWIJZING_DOORSNEDE_RECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="I434" t="str">
+            <v>SAL-VERWIJZING_MATERIAALNUMMER_HERSTRATEN-SO</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="I435" t="str">
+            <v>SAL-VERWIJZING_MATERIAALNUMMER-SO</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="I436" t="str">
+            <v>SAL-VERWIJZING_ONDERSCHRIFT_DETAIL-SO</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="I437" t="str">
+            <v>SAL-VERWIJZING_ONDERSCHRIFT_DOORSNEDE-SO</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="I438" t="str">
+            <v>SAL-VERWIJZING_ONDERSCHRIFT_SITUATIE-SO</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="I439" t="str">
+            <v>SAL-VERWIJZING_ONDERSCHRIFT-SO</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="I440" t="str">
+            <v>SAL-VERWIJZING_WIJZIGING_LINKS-SO</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="I441" t="str">
+            <v>SAL-VERWIJZING_WIJZIGING_RECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="I497" t="str">
+            <v>SFC-KESP_01-SO</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="I498" t="str">
+            <v>SFC-KESP_02-SO</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="I499" t="str">
+            <v>SFC-KESP_03-SO</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="I500" t="str">
+            <v>SFC-KESP_04-SO</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="I501" t="str">
+            <v>SFC-KESP_05-SO</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="I502" t="str">
+            <v>SFC-KESP_06-SO</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="I503" t="str">
+            <v>SFC-KESP_07-SO</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="I504" t="str">
+            <v>SFC-KESP_08-SO</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="I505" t="str">
+            <v>SFC-KESP_09-SO</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="I506" t="str">
+            <v>SFC-KESP_10-SO</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="I507" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_01-SO</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="I508" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_02-SO</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="I509" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_03-SO</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="I510" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_04-SO</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="I511" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_05-SO</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="I512" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_06-SO</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="I513" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_07-SO</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="I514" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_08-SO</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="I515" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_09-SO</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="I516" t="str">
+            <v>SFC-PAAL_BETON_PREFAB_10-SO</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="I517" t="str">
+            <v>SFC-PAAL_HOUT_01-SO</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="I518" t="str">
+            <v>SFC-PAAL_HOUT_02-SO</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="I519" t="str">
+            <v>SFC-PAAL_HOUT_03-SO</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="I520" t="str">
+            <v>SFC-PAAL_STAAL_01-SO</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="I521" t="str">
+            <v>SFC-PAAL_STAAL_02-SO</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="I522" t="str">
+            <v>SFC-PAAL_STAAL_03-SO</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="I523" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AS500_11.0-MM</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="I524" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AS500_12.0-MM</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="I525" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AS500_12.5-MM</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="I526" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AS500_12.7-MM</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="I527" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AS500_9.5-MM</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="I528" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AU14_750-MM</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="I529" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AU16_750-MM</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="I530" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AU17_750-MM</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="I531" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AU18_750-MM</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="I532" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AU20_750-MM</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="I533" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AU21_750-MM</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="I534" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AU23_750-MM</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="I535" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AU25_750-MM</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="I536" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AU26_750-MM</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="I537" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ12_670-MM</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="I538" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ12_700R-MM</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="I539" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ12_770-MM</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="I540" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ13_670_10_10-MM</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="I541" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ13_670-MM</v>
+          </cell>
+        </row>
+        <row r="542">
+          <cell r="I542" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ13_700R_10_10-MM</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="I543" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ13_700R-MM</v>
+          </cell>
+        </row>
+        <row r="544">
+          <cell r="I544" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ13_770-MM</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="I545" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ14_670-MM</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="I546" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ14_700R-MM</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="I547" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ14_770_10_10-MM</v>
+          </cell>
+        </row>
+        <row r="548">
+          <cell r="I548" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ14_770-MM</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="I549" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ17_630-MM</v>
+          </cell>
+        </row>
+        <row r="550">
+          <cell r="I550" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ17_700-MM</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="I551" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ18_630_10_10-MM</v>
+          </cell>
+        </row>
+        <row r="552">
+          <cell r="I552" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ18_630-MM</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="I553" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ18_700-MM</v>
+          </cell>
+        </row>
+        <row r="554">
+          <cell r="I554" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ19_630-MM</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="I555" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ19_700-MM</v>
+          </cell>
+        </row>
+        <row r="556">
+          <cell r="I556" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ20_700-MM</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="I557" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ24_700-MM</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="I558" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ25_630-MM</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="I559" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ26_630-MM</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="I560" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ26_700-MM</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="I561" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ28_630-MM</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="I562" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ28_700-MM</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="I563" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ36_700N-MM</v>
+          </cell>
+        </row>
+        <row r="564">
+          <cell r="I564" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ38_700N-MM</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="I565" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ40_700N-MM</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="I566" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ46_580-MM</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="I567" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ48_580-MM</v>
+          </cell>
+        </row>
+        <row r="568">
+          <cell r="I568" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_AZ50_580-MM</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="I569" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_GU12_500-MM</v>
+          </cell>
+        </row>
+        <row r="570">
+          <cell r="I570" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_GU13_500-MM</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="I571" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_GU15_500-MM</v>
+          </cell>
+        </row>
+        <row r="572">
+          <cell r="I572" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_GU16_400-MM</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="I573" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_GU18_400-MM</v>
+          </cell>
+        </row>
+        <row r="574">
+          <cell r="I574" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_GU6N_600-MM</v>
+          </cell>
+        </row>
+        <row r="575">
+          <cell r="I575" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_GU7N_600-MM</v>
+          </cell>
+        </row>
+        <row r="576">
+          <cell r="I576" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_GU7S_600-MM</v>
+          </cell>
+        </row>
+        <row r="577">
+          <cell r="I577" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_GU8N_600-MM</v>
+          </cell>
+        </row>
+        <row r="578">
+          <cell r="I578" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3030_660-MM</v>
+          </cell>
+        </row>
+        <row r="579">
+          <cell r="I579" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3040_660-MM</v>
+          </cell>
+        </row>
+        <row r="580">
+          <cell r="I580" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3050_711-MM</v>
+          </cell>
+        </row>
+        <row r="581">
+          <cell r="I581" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3130_711-MM</v>
+          </cell>
+        </row>
+        <row r="582">
+          <cell r="I582" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3140_711-MM</v>
+          </cell>
+        </row>
+        <row r="583">
+          <cell r="I583" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3150_711-MM</v>
+          </cell>
+        </row>
+        <row r="584">
+          <cell r="I584" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3260_700-MM</v>
+          </cell>
+        </row>
+        <row r="585">
+          <cell r="I585" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3270_700-MM</v>
+          </cell>
+        </row>
+        <row r="586">
+          <cell r="I586" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3280_700-MM</v>
+          </cell>
+        </row>
+        <row r="587">
+          <cell r="I587" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAL3290_700-MM</v>
+          </cell>
+        </row>
+        <row r="588">
+          <cell r="I588" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAU2240_922-MM</v>
+          </cell>
+        </row>
+        <row r="589">
+          <cell r="I589" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAU2250_921-MM</v>
+          </cell>
+        </row>
+        <row r="590">
+          <cell r="I590" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAU2260_921-MM</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="I591" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAU2440_813-MM</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="I592" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAU2450_813-MM</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="I593" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAU2460_813-MM</v>
+          </cell>
+        </row>
+        <row r="594">
+          <cell r="I594" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAU2770_804-MM</v>
+          </cell>
+        </row>
+        <row r="595">
+          <cell r="I595" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAU2780_804-MM</v>
+          </cell>
+        </row>
+        <row r="596">
+          <cell r="I596" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAZ4450_725-MM</v>
+          </cell>
+        </row>
+        <row r="597">
+          <cell r="I597" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAZ4460_725-MM</v>
+          </cell>
+        </row>
+        <row r="598">
+          <cell r="I598" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAZ4470_725-MM</v>
+          </cell>
+        </row>
+        <row r="599">
+          <cell r="I599" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAZ5460_807-MM</v>
+          </cell>
+        </row>
+        <row r="600">
+          <cell r="I600" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAZ5470_807-MM</v>
+          </cell>
+        </row>
+        <row r="601">
+          <cell r="I601" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAZ5480_807-MM</v>
+          </cell>
+        </row>
+        <row r="602">
+          <cell r="I602" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAZ5560_743-MM</v>
+          </cell>
+        </row>
+        <row r="603">
+          <cell r="I603" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAZ5570_743-MM</v>
+          </cell>
+        </row>
+        <row r="604">
+          <cell r="I604" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PAZ5580_744-MM</v>
+          </cell>
+        </row>
+        <row r="605">
+          <cell r="I605" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU10R_600-MM</v>
+          </cell>
+        </row>
+        <row r="606">
+          <cell r="I606" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU11R_600-MM</v>
+          </cell>
+        </row>
+        <row r="607">
+          <cell r="I607" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU12_600_10_10-MM</v>
+          </cell>
+        </row>
+        <row r="608">
+          <cell r="I608" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU12_600-MM</v>
+          </cell>
+        </row>
+        <row r="609">
+          <cell r="I609" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU13R_675-MM</v>
+          </cell>
+        </row>
+        <row r="610">
+          <cell r="I610" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU14R_675-MM</v>
+          </cell>
+        </row>
+        <row r="611">
+          <cell r="I611" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU15R_675-MM</v>
+          </cell>
+        </row>
+        <row r="612">
+          <cell r="I612" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU18_600_1-MM</v>
+          </cell>
+        </row>
+        <row r="613">
+          <cell r="I613" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU18_600-MM</v>
+          </cell>
+        </row>
+        <row r="614">
+          <cell r="I614" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU22_600_1-MM</v>
+          </cell>
+        </row>
+        <row r="615">
+          <cell r="I615" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU22_600-MM</v>
+          </cell>
+        </row>
+        <row r="616">
+          <cell r="I616" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU28_600_1-MM</v>
+          </cell>
+        </row>
+        <row r="617">
+          <cell r="I617" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU28_600-MM</v>
+          </cell>
+        </row>
+        <row r="618">
+          <cell r="I618" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU32_600-MM</v>
+          </cell>
+        </row>
+        <row r="619">
+          <cell r="I619" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU8R_600-MM</v>
+          </cell>
+        </row>
+        <row r="620">
+          <cell r="I620" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_PU9R_600-MM</v>
+          </cell>
+        </row>
+        <row r="621">
+          <cell r="I621" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_RC8600_742-MM</v>
+          </cell>
+        </row>
+        <row r="622">
+          <cell r="I622" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_RC8700_742-MM</v>
+          </cell>
+        </row>
+        <row r="623">
+          <cell r="I623" t="str">
+            <v>SGC-DAMWAND_STAAL_ARCELOR_RC8800_742-MM</v>
+          </cell>
+        </row>
+        <row r="624">
+          <cell r="I624" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_C14-MM</v>
+          </cell>
+        </row>
+        <row r="625">
+          <cell r="I625" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_C9-MM</v>
+          </cell>
+        </row>
+        <row r="626">
+          <cell r="I626" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_CPROFIEL-MM</v>
+          </cell>
+        </row>
+        <row r="627">
+          <cell r="I627" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_DELTA13-MM</v>
+          </cell>
+        </row>
+        <row r="628">
+          <cell r="I628" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_OMEGA12-MM</v>
+          </cell>
+        </row>
+        <row r="629">
+          <cell r="I629" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_OMEGA18-MM</v>
+          </cell>
+        </row>
+        <row r="630">
+          <cell r="I630" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_V20-MM</v>
+          </cell>
+        </row>
+        <row r="631">
+          <cell r="I631" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_V22-MM</v>
+          </cell>
+        </row>
+        <row r="632">
+          <cell r="I632" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_VT-MM</v>
+          </cell>
+        </row>
+        <row r="633">
+          <cell r="I633" t="str">
+            <v>SGC-DAMWAND_STAAL_CONNECTOR_VTS-MM</v>
+          </cell>
+        </row>
+        <row r="634">
+          <cell r="I634" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1105_575-MM</v>
+          </cell>
+        </row>
+        <row r="635">
+          <cell r="I635" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1200_575-MM</v>
+          </cell>
+        </row>
+        <row r="636">
+          <cell r="I636" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1205_575-MM</v>
+          </cell>
+        </row>
+        <row r="637">
+          <cell r="I637" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1255_575-MM</v>
+          </cell>
+        </row>
+        <row r="638">
+          <cell r="I638" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1605_575-MM</v>
+          </cell>
+        </row>
+        <row r="639">
+          <cell r="I639" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1700_575-MM</v>
+          </cell>
+        </row>
+        <row r="640">
+          <cell r="I640" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1705_575-MM</v>
+          </cell>
+        </row>
+        <row r="641">
+          <cell r="I641" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1706_675-MM</v>
+          </cell>
+        </row>
+        <row r="642">
+          <cell r="I642" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1805_575-MM</v>
+          </cell>
+        </row>
+        <row r="643">
+          <cell r="I643" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1806_675-MM</v>
+          </cell>
+        </row>
+        <row r="644">
+          <cell r="I644" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1856_675-MM</v>
+          </cell>
+        </row>
+        <row r="645">
+          <cell r="I645" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_1906_675-MM</v>
+          </cell>
+        </row>
+        <row r="646">
+          <cell r="I646" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_2305_575-MM</v>
+          </cell>
+        </row>
+        <row r="647">
+          <cell r="I647" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_2405_575-MM</v>
+          </cell>
+        </row>
+        <row r="648">
+          <cell r="I648" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_2505_575-MM</v>
+          </cell>
+        </row>
+        <row r="649">
+          <cell r="I649" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_2555_575-MM</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="I650" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_2605_575-MM</v>
+          </cell>
+        </row>
+        <row r="651">
+          <cell r="I651" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_2606_675-MM</v>
+          </cell>
+        </row>
+        <row r="652">
+          <cell r="I652" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_3406_675-MM</v>
+          </cell>
+        </row>
+        <row r="653">
+          <cell r="I653" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_3506_675-MM</v>
+          </cell>
+        </row>
+        <row r="654">
+          <cell r="I654" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_3600_675-MM</v>
+          </cell>
+        </row>
+        <row r="655">
+          <cell r="I655" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_3606_675-MM</v>
+          </cell>
+        </row>
+        <row r="656">
+          <cell r="I656" t="str">
+            <v>SGC-DAMWAND_STAAL_HOESCH_3806_675-MM</v>
+          </cell>
+        </row>
+        <row r="657">
+          <cell r="I657" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L22_500-MM</v>
+          </cell>
+        </row>
+        <row r="658">
+          <cell r="I658" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L23_500-MM</v>
+          </cell>
+        </row>
+        <row r="659">
+          <cell r="I659" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L24_500-MM</v>
+          </cell>
+        </row>
+        <row r="660">
+          <cell r="I660" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L25_500-MM</v>
+          </cell>
+        </row>
+        <row r="661">
+          <cell r="I661" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L31_450-MM</v>
+          </cell>
+        </row>
+        <row r="662">
+          <cell r="I662" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L43_500-MM</v>
+          </cell>
+        </row>
+        <row r="663">
+          <cell r="I663" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L430_708-MM</v>
+          </cell>
+        </row>
+        <row r="664">
+          <cell r="I664" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L600_600-MM</v>
+          </cell>
+        </row>
+        <row r="665">
+          <cell r="I665" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L601_600-MM</v>
+          </cell>
+        </row>
+        <row r="666">
+          <cell r="I666" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L602_600-MM</v>
+          </cell>
+        </row>
+        <row r="667">
+          <cell r="I667" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L603_600-MM</v>
+          </cell>
+        </row>
+        <row r="668">
+          <cell r="I668" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L604_600-MM</v>
+          </cell>
+        </row>
+        <row r="669">
+          <cell r="I669" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L605_600-MM</v>
+          </cell>
+        </row>
+        <row r="670">
+          <cell r="I670" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L606_600-MM</v>
+          </cell>
+        </row>
+        <row r="671">
+          <cell r="I671" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L607_600-MM</v>
+          </cell>
+        </row>
+        <row r="672">
+          <cell r="I672" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L703_700-MM</v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="I673" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L704_700-MM</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="I674" t="str">
+            <v>SGC-DAMWAND_STAAL_LARSSEN_L755_750-MM</v>
+          </cell>
+        </row>
+        <row r="675">
+          <cell r="I675" t="str">
+            <v>SGR-BEPLANTING_MATERIAALGRENS</v>
+          </cell>
+        </row>
+        <row r="676">
+          <cell r="I676" t="str">
+            <v>SGR-BEPLANTING_SOORT_01_KL-SO</v>
+          </cell>
+        </row>
+        <row r="677">
+          <cell r="I677" t="str">
+            <v>SGR-BEPLANTING_SOORT_01-SO</v>
+          </cell>
+        </row>
+        <row r="678">
+          <cell r="I678" t="str">
+            <v>SGR-BEPLANTING_SOORT_02_KL-SO</v>
+          </cell>
+        </row>
+        <row r="679">
+          <cell r="I679" t="str">
+            <v>SGR-BEPLANTING_SOORT_02-SO</v>
+          </cell>
+        </row>
+        <row r="680">
+          <cell r="I680" t="str">
+            <v>SGR-BODEMBEDEKKER-SO</v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="I681" t="str">
+            <v>SGR-BOLLEN_KL-SO</v>
+          </cell>
+        </row>
+        <row r="682">
+          <cell r="I682" t="str">
+            <v>SGR-BOLLEN-SO</v>
+          </cell>
+        </row>
+        <row r="683">
+          <cell r="I683" t="str">
+            <v>SGR-BOMENRIJ</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="I684" t="str">
+            <v>SGR-BOOM_01</v>
+          </cell>
+        </row>
+        <row r="685">
+          <cell r="I685" t="str">
+            <v>SGR-BOOM_02</v>
+          </cell>
+        </row>
+        <row r="686">
+          <cell r="I686" t="str">
+            <v>SGR-BOOM_03</v>
+          </cell>
+        </row>
+        <row r="687">
+          <cell r="I687" t="str">
+            <v>SGR-BOOM_04</v>
+          </cell>
+        </row>
+        <row r="688">
+          <cell r="I688" t="str">
+            <v>SGR-BOOM_05</v>
+          </cell>
+        </row>
+        <row r="689">
+          <cell r="I689" t="str">
+            <v>SGR-BOOM_06</v>
+          </cell>
+        </row>
+        <row r="690">
+          <cell r="I690" t="str">
+            <v>SGR-BOOM_07</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="I691" t="str">
+            <v>SGR-BOOM_08</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="I692" t="str">
+            <v>SGR-BOOM_09</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="I693" t="str">
+            <v>SGR-BOOM_10</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="I694" t="str">
+            <v>SGR-BOOM_11</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="I695" t="str">
+            <v>SGR-BOOM_12</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="I696" t="str">
+            <v>SGR-BOOM_13</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="I697" t="str">
+            <v>SGR-BOOM_14</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="I698" t="str">
+            <v>SGR-BOOM_15</v>
+          </cell>
+        </row>
+        <row r="699">
+          <cell r="I699" t="str">
+            <v>SGR-BOOM_16</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="I700" t="str">
+            <v>SGR-BOOM_17</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="I701" t="str">
+            <v>SGR-BOOM_18</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="I702" t="str">
+            <v>SGR-BOOM_19</v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="I703" t="str">
+            <v>SGR-BOOM_1E GROOTTE</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="I704" t="str">
+            <v>SGR-BOOM_20</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="I705" t="str">
+            <v>SGR-BOOM_21</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="I706" t="str">
+            <v>SGR-BOOM_22</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="I707" t="str">
+            <v>SGR-BOOM_23</v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="I708" t="str">
+            <v>SGR-BOOM_24</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="I709" t="str">
+            <v>SGR-BOOM_25</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="I710" t="str">
+            <v>SGR-BOOM_26</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="I711" t="str">
+            <v>SGR-BOOM_27</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="I712" t="str">
+            <v>SGR-BOOM_28</v>
+          </cell>
+        </row>
+        <row r="713">
+          <cell r="I713" t="str">
+            <v>SGR-BOOM_29</v>
+          </cell>
+        </row>
+        <row r="714">
+          <cell r="I714" t="str">
+            <v>SGR-BOOM_2E GROOTTE</v>
+          </cell>
+        </row>
+        <row r="715">
+          <cell r="I715" t="str">
+            <v>SGR-BOOM_30</v>
+          </cell>
+        </row>
+        <row r="716">
+          <cell r="I716" t="str">
+            <v>SGR-BOOM_31</v>
+          </cell>
+        </row>
+        <row r="717">
+          <cell r="I717" t="str">
+            <v>SGR-BOOM_32</v>
+          </cell>
+        </row>
+        <row r="718">
+          <cell r="I718" t="str">
+            <v>SGR-BOOM_33</v>
+          </cell>
+        </row>
+        <row r="719">
+          <cell r="I719" t="str">
+            <v>SGR-BOOM_34</v>
+          </cell>
+        </row>
+        <row r="720">
+          <cell r="I720" t="str">
+            <v>SGR-BOOM_35</v>
+          </cell>
+        </row>
+        <row r="721">
+          <cell r="I721" t="str">
+            <v>SGR-BOOM_36</v>
+          </cell>
+        </row>
+        <row r="722">
+          <cell r="I722" t="str">
+            <v>SGR-BOOM_37</v>
+          </cell>
+        </row>
+        <row r="723">
+          <cell r="I723" t="str">
+            <v>SGR-BOOM_38</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="I724" t="str">
+            <v>SGR-BOOM_39</v>
+          </cell>
+        </row>
+        <row r="725">
+          <cell r="I725" t="str">
+            <v>SGR-BOOM_3E GROOTTE</v>
+          </cell>
+        </row>
+        <row r="726">
+          <cell r="I726" t="str">
+            <v>SGR-BOOM_40</v>
+          </cell>
+        </row>
+        <row r="727">
+          <cell r="I727" t="str">
+            <v>SGR-BOOM_41</v>
+          </cell>
+        </row>
+        <row r="728">
+          <cell r="I728" t="str">
+            <v>SGR-BOOM_GBKN-SO</v>
+          </cell>
+        </row>
+        <row r="729">
+          <cell r="I729" t="str">
+            <v>SGR-BOOM_KROON-SO</v>
+          </cell>
+        </row>
+        <row r="730">
+          <cell r="I730" t="str">
+            <v>SGR-BOOM_S01_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="731">
+          <cell r="I731" t="str">
+            <v>SGR-BOOM_S01_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="732">
+          <cell r="I732" t="str">
+            <v>SGR-BOOM_S01_C_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="733">
+          <cell r="I733" t="str">
+            <v>SGR-BOOM_S01_D_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="734">
+          <cell r="I734" t="str">
+            <v>SGR-BOOM_S01_E_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="735">
+          <cell r="I735" t="str">
+            <v>SGR-BOOM_S01_F_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="736">
+          <cell r="I736" t="str">
+            <v>SGR-BOOM_S01_G_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="737">
+          <cell r="I737" t="str">
+            <v>SGR-BOOM_S01_H_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="738">
+          <cell r="I738" t="str">
+            <v>SGR-BOOM_S01_I_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="739">
+          <cell r="I739" t="str">
+            <v>SGR-BOOM_S01_J_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="740">
+          <cell r="I740" t="str">
+            <v>SGR-BOOM_S01_K_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="741">
+          <cell r="I741" t="str">
+            <v>SGR-BOOM_S01_L_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="742">
+          <cell r="I742" t="str">
+            <v>SGR-BOOM_S01_M_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="743">
+          <cell r="I743" t="str">
+            <v>SGR-BOOM_S01_N_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="744">
+          <cell r="I744" t="str">
+            <v>SGR-BOOM_S01_O_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="745">
+          <cell r="I745" t="str">
+            <v>SGR-BOOM_S01_P_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="746">
+          <cell r="I746" t="str">
+            <v>SGR-BOOM_S01_Q_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="747">
+          <cell r="I747" t="str">
+            <v>SGR-BOOM_S01_R_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="748">
+          <cell r="I748" t="str">
+            <v>SGR-BOOM_S01_S_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="749">
+          <cell r="I749" t="str">
+            <v>SGR-BOOM_S01_T_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="750">
+          <cell r="I750" t="str">
+            <v>SGR-BOOM_S01_U_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="751">
+          <cell r="I751" t="str">
+            <v>SGR-BOOM_S01_V_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="752">
+          <cell r="I752" t="str">
+            <v>SGR-BOOM_S01_W_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="753">
+          <cell r="I753" t="str">
+            <v>SGR-BOOM_S01_X_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="754">
+          <cell r="I754" t="str">
+            <v>SGR-BOOM_S01_Y_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="755">
+          <cell r="I755" t="str">
+            <v>SGR-BOOM_S02_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="756">
+          <cell r="I756" t="str">
+            <v>SGR-BOOM_S02_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="757">
+          <cell r="I757" t="str">
+            <v>SGR-BOOM_S02_C_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="758">
+          <cell r="I758" t="str">
+            <v>SGR-BOOM_S02_D_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="759">
+          <cell r="I759" t="str">
+            <v>SGR-BOOM_S02_E_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="760">
+          <cell r="I760" t="str">
+            <v>SGR-BOOM_S02_F_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="761">
+          <cell r="I761" t="str">
+            <v>SGR-BOOM_S02_G_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="762">
+          <cell r="I762" t="str">
+            <v>SGR-BOOM_S03_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="763">
+          <cell r="I763" t="str">
+            <v>SGR-BOOM_S03_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="764">
+          <cell r="I764" t="str">
+            <v>SGR-BOOM_S03_C_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="765">
+          <cell r="I765" t="str">
+            <v>SGR-BOOM_S03_D_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="766">
+          <cell r="I766" t="str">
+            <v>SGR-BOOM_S04_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="767">
+          <cell r="I767" t="str">
+            <v>SGR-BOOM_S04_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="768">
+          <cell r="I768" t="str">
+            <v>SGR-BOOM_S04_C_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="769">
+          <cell r="I769" t="str">
+            <v>SGR-BOOM_S05_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="770">
+          <cell r="I770" t="str">
+            <v>SGR-BOOM_S05_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="771">
+          <cell r="I771" t="str">
+            <v>SGR-BOOM_S05_C_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="772">
+          <cell r="I772" t="str">
+            <v>SGR-BOOM_S05_D_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="773">
+          <cell r="I773" t="str">
+            <v>SGR-BOOM_S05_E_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="774">
+          <cell r="I774" t="str">
+            <v>SGR-BOOM_S05_F_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="775">
+          <cell r="I775" t="str">
+            <v>SGR-BOOM_S05_G_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="776">
+          <cell r="I776" t="str">
+            <v>SGR-BOOM_S05_H_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="777">
+          <cell r="I777" t="str">
+            <v>SGR-BOOM_S07_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="778">
+          <cell r="I778" t="str">
+            <v>SGR-BOOM_S07_C_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="779">
+          <cell r="I779" t="str">
+            <v>SGR-BOOM_S07_E_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="780">
+          <cell r="I780" t="str">
+            <v>SGR-BOOM_S08_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="781">
+          <cell r="I781" t="str">
+            <v>SGR-BOOM_S08_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="782">
+          <cell r="I782" t="str">
+            <v>SGR-BOOM_S08_C_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="783">
+          <cell r="I783" t="str">
+            <v>SGR-BOOM_S08_D_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="784">
+          <cell r="I784" t="str">
+            <v>SGR-BOOM_S09_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="785">
+          <cell r="I785" t="str">
+            <v>SGR-BOOM_S09_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="786">
+          <cell r="I786" t="str">
+            <v>SGR-BOOM_S09_C_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="787">
+          <cell r="I787" t="str">
+            <v>SGR-BOOM_S09_D_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="788">
+          <cell r="I788" t="str">
+            <v>SGR-BOOM_S09_E_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="789">
+          <cell r="I789" t="str">
+            <v>SGR-BOOM_S09_F_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="790">
+          <cell r="I790" t="str">
+            <v>SGR-BOOM_S10_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="791">
+          <cell r="I791" t="str">
+            <v>SGR-BOOM_S10_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="792">
+          <cell r="I792" t="str">
+            <v>SGR-BOOM_S11_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="793">
+          <cell r="I793" t="str">
+            <v>SGR-BOOM_S11_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="794">
+          <cell r="I794" t="str">
+            <v>SGR-BOOM_S12_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="795">
+          <cell r="I795" t="str">
+            <v>SGR-BOOM_S12_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="796">
+          <cell r="I796" t="str">
+            <v>SGR-BOOM_SNOEIEN-SO</v>
+          </cell>
+        </row>
+        <row r="797">
+          <cell r="I797" t="str">
+            <v>SGR-BOOM_STAM-SO</v>
+          </cell>
+        </row>
+        <row r="798">
+          <cell r="I798" t="str">
+            <v>SGR-BOOM_VERPLANTEN_KROON-SO</v>
+          </cell>
+        </row>
+        <row r="799">
+          <cell r="I799" t="str">
+            <v>SGR-BOOM_VERPLANTEN_STAM-SO</v>
+          </cell>
+        </row>
+        <row r="800">
+          <cell r="I800" t="str">
+            <v>SGR-BOOM_VERPLANTEN-SO</v>
+          </cell>
+        </row>
+        <row r="801">
+          <cell r="I801" t="str">
+            <v>SGR-BOOMGAARD_HOOGSTAM-SO</v>
+          </cell>
+        </row>
+        <row r="802">
+          <cell r="I802" t="str">
+            <v>SGR-BOOMGAARD_KLEINFRUIT-SO</v>
+          </cell>
+        </row>
+        <row r="803">
+          <cell r="I803" t="str">
+            <v>SGR-BOOMGAARD_LAAGSTAM-SO</v>
+          </cell>
+        </row>
+        <row r="804">
+          <cell r="I804" t="str">
+            <v>SGR-BOOMGAARD_WIJN-SO</v>
+          </cell>
+        </row>
+        <row r="805">
+          <cell r="I805" t="str">
+            <v>SGR-BOOM-SO</v>
+          </cell>
+        </row>
+        <row r="806">
+          <cell r="I806" t="str">
+            <v>SGR-BOOMTEELT-SO</v>
+          </cell>
+        </row>
+        <row r="807">
+          <cell r="I807" t="str">
+            <v>SGR-BOS_GEMENGD_KL-SO</v>
+          </cell>
+        </row>
+        <row r="808">
+          <cell r="I808" t="str">
+            <v>SGR-BOS_GEMENGD-SO</v>
+          </cell>
+        </row>
+        <row r="809">
+          <cell r="I809" t="str">
+            <v>SGR-BOS_KL-SO</v>
+          </cell>
+        </row>
+        <row r="810">
+          <cell r="I810" t="str">
+            <v>SGR-BOS_LOOF_KL-SO</v>
+          </cell>
+        </row>
+        <row r="811">
+          <cell r="I811" t="str">
+            <v>SGR-BOS_LOOF-SO</v>
+          </cell>
+        </row>
+        <row r="812">
+          <cell r="I812" t="str">
+            <v>SGR-BOS_NAALD_KL-SO</v>
+          </cell>
+        </row>
+        <row r="813">
+          <cell r="I813" t="str">
+            <v>SGR-BOS_NAALD-SO</v>
+          </cell>
+        </row>
+        <row r="814">
+          <cell r="I814" t="str">
+            <v>SGR-BOSPLANTSOEN_KL-SO</v>
+          </cell>
+        </row>
+        <row r="815">
+          <cell r="I815" t="str">
+            <v>SGR-BOSPLANTSOEN-SO</v>
+          </cell>
+        </row>
+        <row r="816">
+          <cell r="I816" t="str">
+            <v>SGR-BOS-SO</v>
+          </cell>
+        </row>
+        <row r="817">
+          <cell r="I817" t="str">
+            <v>SGR-BOUWLAND_AKKERBOUW-SO</v>
+          </cell>
+        </row>
+        <row r="818">
+          <cell r="I818" t="str">
+            <v>SGR-BOUWLAND_BOLLENTEELT-SO</v>
+          </cell>
+        </row>
+        <row r="819">
+          <cell r="I819" t="str">
+            <v>SGR-BOUWLAND_BRAAKLIGGEND-SO</v>
+          </cell>
+        </row>
+        <row r="820">
+          <cell r="I820" t="str">
+            <v>SGR-BOUWLAND_VOLLEGRONDSTEELT-SO</v>
+          </cell>
+        </row>
+        <row r="821">
+          <cell r="I821" t="str">
+            <v>SGR-BOUWLAND-SO</v>
+          </cell>
+        </row>
+        <row r="822">
+          <cell r="I822" t="str">
+            <v>SGR-DOORWORTELBARE RUIMTE</v>
+          </cell>
+        </row>
+        <row r="823">
+          <cell r="I823" t="str">
+            <v>SGR-DUIN-SO</v>
+          </cell>
+        </row>
+        <row r="824">
+          <cell r="I824" t="str">
+            <v>SGR-FRUITTEELT-SO</v>
+          </cell>
+        </row>
+        <row r="825">
+          <cell r="I825" t="str">
+            <v>SGR-GRAS_01_KL-SO</v>
+          </cell>
+        </row>
+        <row r="826">
+          <cell r="I826" t="str">
+            <v>SGR-GRAS_01-SO</v>
+          </cell>
+        </row>
+        <row r="827">
+          <cell r="I827" t="str">
+            <v>SGR-GRAS_02_KL-SO</v>
+          </cell>
+        </row>
+        <row r="828">
+          <cell r="I828" t="str">
+            <v>SGR-GRAS_02-SO</v>
+          </cell>
+        </row>
+        <row r="829">
+          <cell r="I829" t="str">
+            <v>SGR-GRAS_GAZON_KL-SO</v>
+          </cell>
+        </row>
+        <row r="830">
+          <cell r="I830" t="str">
+            <v>SGR-GRAS_GAZON-SO</v>
+          </cell>
+        </row>
+        <row r="831">
+          <cell r="I831" t="str">
+            <v>SGR-GRAS_GESTABILISEERD_KL-SO</v>
+          </cell>
+        </row>
+        <row r="832">
+          <cell r="I832" t="str">
+            <v>SGR-GRAS_GESTABILISEERD-SO</v>
+          </cell>
+        </row>
+        <row r="833">
+          <cell r="I833" t="str">
+            <v>SGR-GRAS_KUNSTGRAS_KL-SO</v>
+          </cell>
+        </row>
+        <row r="834">
+          <cell r="I834" t="str">
+            <v>SGR-GRAS_KUNSTGRAS-SO</v>
+          </cell>
+        </row>
+        <row r="835">
+          <cell r="I835" t="str">
+            <v>SGR-GRAS_RUIGGRAS_KL-SO</v>
+          </cell>
+        </row>
+        <row r="836">
+          <cell r="I836" t="str">
+            <v>SGR-GRAS_RUIGGRAS-SO</v>
+          </cell>
+        </row>
+        <row r="837">
+          <cell r="I837" t="str">
+            <v>SGR-HAAG-D</v>
+          </cell>
+        </row>
+        <row r="838">
+          <cell r="I838" t="str">
+            <v>SGR-HEESTER_01</v>
+          </cell>
+        </row>
+        <row r="839">
+          <cell r="I839" t="str">
+            <v>SGR-HEESTER_02</v>
+          </cell>
+        </row>
+        <row r="840">
+          <cell r="I840" t="str">
+            <v>SGR-HEESTER_03</v>
+          </cell>
+        </row>
+        <row r="841">
+          <cell r="I841" t="str">
+            <v>SGR-HEESTER_04</v>
+          </cell>
+        </row>
+        <row r="842">
+          <cell r="I842" t="str">
+            <v>SGR-HEESTER_05</v>
+          </cell>
+        </row>
+        <row r="843">
+          <cell r="I843" t="str">
+            <v>SGR-HEESTER_06</v>
+          </cell>
+        </row>
+        <row r="844">
+          <cell r="I844" t="str">
+            <v>SGR-HEESTER_S01_A_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="845">
+          <cell r="I845" t="str">
+            <v>SGR-HEESTER_S01_B_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="846">
+          <cell r="I846" t="str">
+            <v>SGR-HEESTER_S01_C_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="847">
+          <cell r="I847" t="str">
+            <v>SGR-HEESTER_S01_E_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="848">
+          <cell r="I848" t="str">
+            <v>SGR-HEESTER_S01_F_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="849">
+          <cell r="I849" t="str">
+            <v>SGR-HEESTER_S01_G_ZIJ-D</v>
+          </cell>
+        </row>
+        <row r="850">
+          <cell r="I850" t="str">
+            <v>SGR-HEESTERS_KL-SO</v>
+          </cell>
+        </row>
+        <row r="851">
+          <cell r="I851" t="str">
+            <v>SGR-HEESTERS-SO</v>
+          </cell>
+        </row>
+        <row r="852">
+          <cell r="I852" t="str">
+            <v>SGR-HEIDE-SO</v>
+          </cell>
+        </row>
+        <row r="853">
+          <cell r="I853" t="str">
+            <v>SGR-HOUTWAL-SO</v>
+          </cell>
+        </row>
+        <row r="854">
+          <cell r="I854" t="str">
+            <v>SGR-KRUIDEN_KL-SO</v>
+          </cell>
+        </row>
+        <row r="855">
+          <cell r="I855" t="str">
+            <v>SGR-KRUIDEN-SO</v>
+          </cell>
+        </row>
+        <row r="856">
+          <cell r="I856" t="str">
+            <v>SGR-KWELDER-SO</v>
+          </cell>
+        </row>
+        <row r="857">
+          <cell r="I857" t="str">
+            <v>SGR-MOERAS_KL-SO</v>
+          </cell>
+        </row>
+        <row r="858">
+          <cell r="I858" t="str">
+            <v>SGR-MOERAS-SO</v>
+          </cell>
+        </row>
+        <row r="859">
+          <cell r="I859" t="str">
+            <v>SGR-PLANTENBAK-SO</v>
+          </cell>
+        </row>
+        <row r="860">
+          <cell r="I860" t="str">
+            <v>SGR-PLANTGATVERBETERING_01_KL-SO</v>
+          </cell>
+        </row>
+        <row r="861">
+          <cell r="I861" t="str">
+            <v>SGR-PLANTGATVERBETERING_01-SO</v>
+          </cell>
+        </row>
+        <row r="862">
+          <cell r="I862" t="str">
+            <v>SGR-PLANTGATVERBETERING_02_KL-SO</v>
+          </cell>
+        </row>
+        <row r="863">
+          <cell r="I863" t="str">
+            <v>SGR-PLANTGATVERBETERING_02-SO</v>
+          </cell>
+        </row>
+        <row r="864">
+          <cell r="I864" t="str">
+            <v>SGR-RIETLAND_KL-SO</v>
+          </cell>
+        </row>
+        <row r="865">
+          <cell r="I865" t="str">
+            <v>SGR-RIETLAND-SO</v>
+          </cell>
+        </row>
+        <row r="866">
+          <cell r="I866" t="str">
+            <v>SGR-ROOS-SO</v>
+          </cell>
+        </row>
+        <row r="867">
+          <cell r="I867" t="str">
+            <v>SGR-SOORTAANDUIDING-SO</v>
+          </cell>
+        </row>
+        <row r="868">
+          <cell r="I868" t="str">
+            <v>SGR-SPORTVELD_GRAS_KL-SO</v>
+          </cell>
+        </row>
+        <row r="869">
+          <cell r="I869" t="str">
+            <v>SGR-SPORTVELD_GRAS_KUNSTGRAS_KL-SO</v>
+          </cell>
+        </row>
+        <row r="870">
+          <cell r="I870" t="str">
+            <v>SGR-SPORTVELD_GRAS_KUNSTGRAS-SO</v>
+          </cell>
+        </row>
+        <row r="871">
+          <cell r="I871" t="str">
+            <v>SGR-SPORTVELD_GRAS-SO</v>
+          </cell>
+        </row>
+        <row r="872">
+          <cell r="I872" t="str">
+            <v>SGR-STRUWEEL_KL-SO</v>
+          </cell>
+        </row>
+        <row r="873">
+          <cell r="I873" t="str">
+            <v>SGR-STRUWEEL-SO</v>
+          </cell>
+        </row>
+        <row r="874">
+          <cell r="I874" t="str">
+            <v>SGR-VASTEPLANTEN_KL-SO</v>
+          </cell>
+        </row>
+        <row r="875">
+          <cell r="I875" t="str">
+            <v>SGR-VASTEPLANTEN-SO</v>
+          </cell>
+        </row>
+        <row r="876">
+          <cell r="I876" t="str">
+            <v>SGR-VEGETATIE_GESLOTEN-SO</v>
+          </cell>
+        </row>
+        <row r="877">
+          <cell r="I877" t="str">
+            <v>SGR-VEGETATIE_OPEN-SO</v>
+          </cell>
+        </row>
+        <row r="878">
+          <cell r="I878" t="str">
+            <v>SGR-WATERPLANTEN_KL-SO</v>
+          </cell>
+        </row>
+        <row r="879">
+          <cell r="I879" t="str">
+            <v>SGR-WATERPLANTEN-SO</v>
+          </cell>
+        </row>
+        <row r="880">
+          <cell r="I880" t="str">
+            <v>SGR-WISSELBEPLANTING_KL-SO</v>
+          </cell>
+        </row>
+        <row r="881">
+          <cell r="I881" t="str">
+            <v>SGR-WISSELBEPLANTING-SO</v>
+          </cell>
+        </row>
+        <row r="892">
+          <cell r="I892" t="str">
+            <v>SIE-CONSTRUCTIEVE AFSCHEIDINGEN_HEKWERK_DOORGANG_DRAAIPOORT</v>
+          </cell>
+        </row>
+        <row r="893">
+          <cell r="I893" t="str">
+            <v>SIE-CONSTRUCTIEVE AFSCHEIDINGEN_HEKWERK_DOORGANG_SCHUIFPOORT</v>
+          </cell>
+        </row>
+        <row r="894">
+          <cell r="I894" t="str">
+            <v>SIE-MEUBILAIR_ABRI-SO</v>
+          </cell>
+        </row>
+        <row r="895">
+          <cell r="I895" t="str">
+            <v>SIE-MEUBILAIR_AFVAL APART PLAATS-SO</v>
+          </cell>
+        </row>
+        <row r="896">
+          <cell r="I896" t="str">
+            <v>SIE-MEUBILAIR_AFVALBAK_01-SO</v>
+          </cell>
+        </row>
+        <row r="897">
+          <cell r="I897" t="str">
+            <v>SIE-MEUBILAIR_AFVALBAK_02-SO</v>
+          </cell>
+        </row>
+        <row r="898">
+          <cell r="I898" t="str">
+            <v>SIE-MEUBILAIR_AFVALBAK-SO</v>
+          </cell>
+        </row>
+        <row r="899">
+          <cell r="I899" t="str">
+            <v>SIE-MEUBILAIR_ANTENNE-SO</v>
+          </cell>
+        </row>
+        <row r="900">
+          <cell r="I900" t="str">
+            <v>SIE-MEUBILAIR_ANTIPARKEERVOORZIENING_PARKEERBEUGEL-SO</v>
+          </cell>
+        </row>
+        <row r="901">
+          <cell r="I901" t="str">
+            <v>SIE-MEUBILAIR_BAK_BLOEMBAK-SO</v>
+          </cell>
+        </row>
+        <row r="902">
+          <cell r="I902" t="str">
+            <v>SIE-MEUBILAIR_BAK_DRINKBAK-SO</v>
+          </cell>
+        </row>
+        <row r="903">
+          <cell r="I903" t="str">
+            <v>SIE-MEUBILAIR_BAK-SO</v>
+          </cell>
+        </row>
+        <row r="904">
+          <cell r="I904" t="str">
+            <v>SIE-MEUBILAIR_BESCHERMBEUGEL_RECHT</v>
+          </cell>
+        </row>
+        <row r="905">
+          <cell r="I905" t="str">
+            <v>SIE-MEUBILAIR_BESCHERMBEUGEL_ROND</v>
+          </cell>
+        </row>
+        <row r="906">
+          <cell r="I906" t="str">
+            <v>SIE-MEUBILAIR_BOEI-SO</v>
+          </cell>
+        </row>
+        <row r="907">
+          <cell r="I907" t="str">
+            <v>SIE-MEUBILAIR_BOLDER-SO</v>
+          </cell>
+        </row>
+        <row r="908">
+          <cell r="I908" t="str">
+            <v>SIE-MEUBILAIR_BOOMROOSTER_STAAL_1500X1500</v>
+          </cell>
+        </row>
+        <row r="909">
+          <cell r="I909" t="str">
+            <v>SIE-MEUBILAIR_BOOMROOSTER_STAAL_1900X1900</v>
+          </cell>
+        </row>
+        <row r="910">
+          <cell r="I910" t="str">
+            <v>SIE-MEUBILAIR_BORD_DSI-SO</v>
+          </cell>
+        </row>
+        <row r="911">
+          <cell r="I911" t="str">
+            <v>SIE-MEUBILAIR_BORD_INFORMATIE-SO</v>
+          </cell>
+        </row>
+        <row r="912">
+          <cell r="I912" t="str">
+            <v>SIE-MEUBILAIR_BORD_LOCATIEPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="913">
+          <cell r="I913" t="str">
+            <v>SIE-MEUBILAIR_BORD_PLAATSNAAMBORD-SO</v>
+          </cell>
+        </row>
+        <row r="914">
+          <cell r="I914" t="str">
+            <v>SIE-MEUBILAIR_BORD_RECLAME-SO</v>
+          </cell>
+        </row>
+        <row r="915">
+          <cell r="I915" t="str">
+            <v>SIE-MEUBILAIR_BORD_SCHEEPVAARTVERKEER-SO</v>
+          </cell>
+        </row>
+        <row r="916">
+          <cell r="I916" t="str">
+            <v>SIE-MEUBILAIR_BORD_STRAATNAAMBORD_MODEL_PAAL-SO</v>
+          </cell>
+        </row>
+        <row r="917">
+          <cell r="I917" t="str">
+            <v>SIE-MEUBILAIR_BORD_STRAATNAAMBORD_MODEL-SO</v>
+          </cell>
+        </row>
+        <row r="918">
+          <cell r="I918" t="str">
+            <v>SIE-MEUBILAIR_BORD_STRAATNAAMBORD-SO</v>
+          </cell>
+        </row>
+        <row r="919">
+          <cell r="I919" t="str">
+            <v>SIE-MEUBILAIR_BORD_VERKEERSBORD_MODEL_PAAL-SO</v>
+          </cell>
+        </row>
+        <row r="920">
+          <cell r="I920" t="str">
+            <v>SIE-MEUBILAIR_BORD_VERKEERSBORD_MODEL-SO</v>
+          </cell>
+        </row>
+        <row r="921">
+          <cell r="I921" t="str">
+            <v>SIE-MEUBILAIR_BORD_VERKEERSBORD-SO</v>
+          </cell>
+        </row>
+        <row r="922">
+          <cell r="I922" t="str">
+            <v>SIE-MEUBILAIR_BORD_WAARSCHUWINGSHEK-SO</v>
+          </cell>
+        </row>
+        <row r="923">
+          <cell r="I923" t="str">
+            <v>SIE-MEUBILAIR_BORD_WEGWIJZER-SO</v>
+          </cell>
+        </row>
+        <row r="924">
+          <cell r="I924" t="str">
+            <v>SIE-MEUBILAIR_BORD-SO</v>
+          </cell>
+        </row>
+        <row r="925">
+          <cell r="I925" t="str">
+            <v>SIE-MEUBILAIR_BRIEVENBUS-SO</v>
+          </cell>
+        </row>
+        <row r="926">
+          <cell r="I926" t="str">
+            <v>SIE-MEUBILAIR_CAMERA_ROODLICHT-SO</v>
+          </cell>
+        </row>
+        <row r="927">
+          <cell r="I927" t="str">
+            <v>SIE-MEUBILAIR_CAMERA_SNELHEID-SO</v>
+          </cell>
+        </row>
+        <row r="928">
+          <cell r="I928" t="str">
+            <v>SIE-MEUBILAIR_CONTAINER_AFVAL-SO</v>
+          </cell>
+        </row>
+        <row r="929">
+          <cell r="I929" t="str">
+            <v>SIE-MEUBILAIR_CONTAINER_ALGEMEEN-SO</v>
+          </cell>
+        </row>
+        <row r="930">
+          <cell r="I930" t="str">
+            <v>SIE-MEUBILAIR_CONTAINER_GLAS-SO</v>
+          </cell>
+        </row>
+        <row r="931">
+          <cell r="I931" t="str">
+            <v>SIE-MEUBILAIR_CONTAINER_GROFVUIL-SO</v>
+          </cell>
+        </row>
+        <row r="932">
+          <cell r="I932" t="str">
+            <v>SIE-MEUBILAIR_CONTAINER_HUISVUIL_OPSTELPLAATS-SO</v>
+          </cell>
+        </row>
+        <row r="933">
+          <cell r="I933" t="str">
+            <v>SIE-MEUBILAIR_CONTAINER_KUNSTSTOF-SO</v>
+          </cell>
+        </row>
+        <row r="934">
+          <cell r="I934" t="str">
+            <v>SIE-MEUBILAIR_CONTAINER_PAPIER-SO</v>
+          </cell>
+        </row>
+        <row r="935">
+          <cell r="I935" t="str">
+            <v>SIE-MEUBILAIR_CONTAINER_TEXTIEL-SO</v>
+          </cell>
+        </row>
+        <row r="936">
+          <cell r="I936" t="str">
+            <v>SIE-MEUBILAIR_DEBIETMETER-SO</v>
+          </cell>
+        </row>
+        <row r="937">
+          <cell r="I937" t="str">
+            <v>SIE-MEUBILAIR_DECORATIEVE INRICHTING_BETONBOL</v>
+          </cell>
+        </row>
+        <row r="938">
+          <cell r="I938" t="str">
+            <v>SIE-MEUBILAIR_DECORATIEVE INRICHTING_BETONPOEF_ROND</v>
+          </cell>
+        </row>
+        <row r="939">
+          <cell r="I939" t="str">
+            <v>SIE-MEUBILAIR_DECORATIEVE INRICHTING_BETONPOEF_VIERKANT</v>
+          </cell>
+        </row>
+        <row r="940">
+          <cell r="I940" t="str">
+            <v>SIE-MEUBILAIR_DECORATIEVE INRICHTING_BETONBOL_VIERKANTENVOET</v>
+          </cell>
+        </row>
+        <row r="941">
+          <cell r="I941" t="str">
+            <v>SIE-MEUBILAIR_DIJKPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="942">
+          <cell r="I942" t="str">
+            <v>SIE-MEUBILAIR_DUKDALF-SO</v>
+          </cell>
+        </row>
+        <row r="943">
+          <cell r="I943" t="str">
+            <v>SIE-MEUBILAIR_FIETSENKLUIS-SO</v>
+          </cell>
+        </row>
+        <row r="944">
+          <cell r="I944" t="str">
+            <v>SIE-MEUBILAIR_FIETSENREK-SO</v>
+          </cell>
+        </row>
+        <row r="945">
+          <cell r="I945" t="str">
+            <v>SIE-MEUBILAIR_FIETSENREK_01-SO</v>
+          </cell>
+        </row>
+        <row r="946">
+          <cell r="I946" t="str">
+            <v>SIE-MEUBILAIR_FIETSKLEM_RECHT</v>
+          </cell>
+        </row>
+        <row r="947">
+          <cell r="I947" t="str">
+            <v>SIE-MEUBILAIR_FIETSKLEM_SCHUIN</v>
+          </cell>
+        </row>
+        <row r="948">
+          <cell r="I948" t="str">
+            <v>SIE-MEUBILAIR_FIETSKLEM-SO</v>
+          </cell>
+        </row>
+        <row r="949">
+          <cell r="I949" t="str">
+            <v>SIE-MEUBILAIR_FIETSKLUIS-SO</v>
+          </cell>
+        </row>
+        <row r="950">
+          <cell r="I950" t="str">
+            <v>SIE-MEUBILAIR_FIETSNIET</v>
+          </cell>
+        </row>
+        <row r="951">
+          <cell r="I951" t="str">
+            <v>SIE-MEUBILAIR_FIETSTROMMEL-SO</v>
+          </cell>
+        </row>
+        <row r="952">
+          <cell r="I952" t="str">
+            <v>SIE-MEUBILAIR_FLITSPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="953">
+          <cell r="I953" t="str">
+            <v>SIE-MEUBILAIR_FONTEIN-SO</v>
+          </cell>
+        </row>
+        <row r="954">
+          <cell r="I954" t="str">
+            <v>SIE-MEUBILAIR_GELEIDECONSTRUCTIE-SO</v>
+          </cell>
+        </row>
+        <row r="955">
+          <cell r="I955" t="str">
+            <v>SIE-MEUBILAIR_GLASBOLREFLECTOR-SO</v>
+          </cell>
+        </row>
+        <row r="956">
+          <cell r="I956" t="str">
+            <v>SIE-MEUBILAIR_GRONDSPOT-SO</v>
+          </cell>
+        </row>
+        <row r="957">
+          <cell r="I957" t="str">
+            <v>SIE-MEUBILAIR_HERDENKINGSMONUMENT-SO</v>
+          </cell>
+        </row>
+        <row r="958">
+          <cell r="I958" t="str">
+            <v>SIE-MEUBILAIR_HOOGSPANNINGSMAST-SO</v>
+          </cell>
+        </row>
+        <row r="959">
+          <cell r="I959" t="str">
+            <v>SIE-MEUBILAIR_HOOGTEDETECTIEMETER-SO</v>
+          </cell>
+        </row>
+        <row r="960">
+          <cell r="I960" t="str">
+            <v>SIE-MEUBILAIR_HOOGTEMERK-SO</v>
+          </cell>
+        </row>
+        <row r="961">
+          <cell r="I961" t="str">
+            <v>SIE-MEUBILAIR_INGANGSCONTROLE_CAMERA-SO</v>
+          </cell>
+        </row>
+        <row r="962">
+          <cell r="I962" t="str">
+            <v>SIE-MEUBILAIR_INGANGSCONTROLE_STOPLICHT-SO</v>
+          </cell>
+        </row>
+        <row r="963">
+          <cell r="I963" t="str">
+            <v>SIE-MEUBILAIR_INGANGSCONTROLE_ZUIL-SO</v>
+          </cell>
+        </row>
+        <row r="964">
+          <cell r="I964" t="str">
+            <v>SIE-MEUBILAIR_INKLIMBEVEILIGING-SO</v>
+          </cell>
+        </row>
+        <row r="965">
+          <cell r="I965" t="str">
+            <v>SIE-MEUBILAIR_KAST_CAI-SO</v>
+          </cell>
+        </row>
+        <row r="966">
+          <cell r="I966" t="str">
+            <v>SIE-MEUBILAIR_KAST_ELEKTRA-SO</v>
+          </cell>
+        </row>
+        <row r="967">
+          <cell r="I967" t="str">
+            <v>SIE-MEUBILAIR_KAST_GAS-SO</v>
+          </cell>
+        </row>
+        <row r="968">
+          <cell r="I968" t="str">
+            <v>SIE-MEUBILAIR_KAST_GMS-SO</v>
+          </cell>
+        </row>
+        <row r="969">
+          <cell r="I969" t="str">
+            <v>SIE-MEUBILAIR_KAST_OV-SO</v>
+          </cell>
+        </row>
+        <row r="970">
+          <cell r="I970" t="str">
+            <v>SIE-MEUBILAIR_KAST_RIOOL-SO</v>
+          </cell>
+        </row>
+        <row r="971">
+          <cell r="I971" t="str">
+            <v>SIE-MEUBILAIR_KAST_TELECOM-SO</v>
+          </cell>
+        </row>
+        <row r="972">
+          <cell r="I972" t="str">
+            <v>SIE-MEUBILAIR_KAST_TEL-SO</v>
+          </cell>
+        </row>
+        <row r="973">
+          <cell r="I973" t="str">
+            <v>SIE-MEUBILAIR_KAST_VRI-SO</v>
+          </cell>
+        </row>
+        <row r="974">
+          <cell r="I974" t="str">
+            <v>SIE-MEUBILAIR_KAST-SO</v>
+          </cell>
+        </row>
+        <row r="975">
+          <cell r="I975" t="str">
+            <v>SIE-MEUBILAIR_KUNSTOBJECT-SO</v>
+          </cell>
+        </row>
+        <row r="976">
+          <cell r="I976" t="str">
+            <v>SIE-MEUBILAIR_LICHTMAST-SO</v>
+          </cell>
+        </row>
+        <row r="977">
+          <cell r="I977" t="str">
+            <v>SIE-MEUBILAIR_LICHTPUNT-SO</v>
+          </cell>
+        </row>
+        <row r="978">
+          <cell r="I978" t="str">
+            <v>SIE-MEUBILAIR_MAST_BOVENLEIDING-SO</v>
+          </cell>
+        </row>
+        <row r="979">
+          <cell r="I979" t="str">
+            <v>SIE-MEUBILAIR_MAST_LAAGSPANNING-SO</v>
+          </cell>
+        </row>
+        <row r="980">
+          <cell r="I980" t="str">
+            <v>SIE-MEUBILAIR_MAST_RADAR-SO</v>
+          </cell>
+        </row>
+        <row r="981">
+          <cell r="I981" t="str">
+            <v>SIE-MEUBILAIR_MAST_STRAALZENDER-SO</v>
+          </cell>
+        </row>
+        <row r="982">
+          <cell r="I982" t="str">
+            <v>SIE-MEUBILAIR_MAST_ZEND-SO</v>
+          </cell>
+        </row>
+        <row r="983">
+          <cell r="I983" t="str">
+            <v>SIE-MEUBILAIR_MAST-SO</v>
+          </cell>
+        </row>
+        <row r="984">
+          <cell r="I984" t="str">
+            <v>SIE-MEUBILAIR_MEERPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="985">
+          <cell r="I985" t="str">
+            <v>SIE-MEUBILAIR_MEERSTOEL-SO</v>
+          </cell>
+        </row>
+        <row r="986">
+          <cell r="I986" t="str">
+            <v>SIE-MEUBILAIR_MERKPAAL_LEIDING-SO</v>
+          </cell>
+        </row>
+        <row r="987">
+          <cell r="I987" t="str">
+            <v>SIE-MEUBILAIR_OPENBAARTOILET-SO</v>
+          </cell>
+        </row>
+        <row r="988">
+          <cell r="I988" t="str">
+            <v>SIE-MEUBILAIR_PAAL_AFSLUITPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="989">
+          <cell r="I989" t="str">
+            <v>SIE-MEUBILAIR_PAAL_ALGEMEEN_01-SO</v>
+          </cell>
+        </row>
+        <row r="990">
+          <cell r="I990" t="str">
+            <v>SIE-MEUBILAIR_PAAL_ALGEMEEN-SO</v>
+          </cell>
+        </row>
+        <row r="991">
+          <cell r="I991" t="str">
+            <v>SIE-MEUBILAIR_PAAL_BETON-SO</v>
+          </cell>
+        </row>
+        <row r="992">
+          <cell r="I992" t="str">
+            <v>SIE-MEUBILAIR_PAAL_CONISCH_AFNEEMBAAR-SO</v>
+          </cell>
+        </row>
+        <row r="993">
+          <cell r="I993" t="str">
+            <v>SIE-MEUBILAIR_PAAL_CONISCH-SO</v>
+          </cell>
+        </row>
+        <row r="995">
+          <cell r="I995" t="str">
+            <v>SIE-MEUBILAIR_PAAL_DRUKKNOPPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="996">
+          <cell r="I996" t="str">
+            <v>SIE-MEUBILAIR_PAAL_GRENSMARKERING-SO</v>
+          </cell>
+        </row>
+        <row r="997">
+          <cell r="I997" t="str">
+            <v>SIE-MEUBILAIR_PAAL_GRENSPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="998">
+          <cell r="I998" t="str">
+            <v>SIE-MEUBILAIR_PAAL_HALTEPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="999">
+          <cell r="I999" t="str">
+            <v>SIE-MEUBILAIR_PAAL_HECTOMETER-SO</v>
+          </cell>
+        </row>
+        <row r="1000">
+          <cell r="I1000" t="str">
+            <v>SIE-MEUBILAIR_PAAL_HOUT-SO</v>
+          </cell>
+        </row>
+        <row r="1001">
+          <cell r="I1001" t="str">
+            <v>SIE-MEUBILAIR_PAAL_KLAPPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1002">
+          <cell r="I1002" t="str">
+            <v>SIE-MEUBILAIR_PAAL_KUNSTSTOF-SO</v>
+          </cell>
+        </row>
+        <row r="1003">
+          <cell r="I1003" t="str">
+            <v>SIE-MEUBILAIR_PAAL_LAADPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1004">
+          <cell r="I1004" t="str">
+            <v>SIE-MEUBILAIR_PAAL_LICHTMAST-SO</v>
+          </cell>
+        </row>
+        <row r="1005">
+          <cell r="I1005" t="str">
+            <v>SIE-MEUBILAIR_PAAL_POLLER-SO</v>
+          </cell>
+        </row>
+        <row r="1006">
+          <cell r="I1006" t="str">
+            <v>SIE-MEUBILAIR_PAAL_PORTAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1007">
+          <cell r="I1007" t="str">
+            <v>SIE-MEUBILAIR_PAAL_PRAATPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1008">
+          <cell r="I1008" t="str">
+            <v>SIE-MEUBILAIR_PAAL_SIRENE-SO</v>
+          </cell>
+        </row>
+        <row r="1009">
+          <cell r="I1009" t="str">
+            <v>SIE-MEUBILAIR_PAAL_TEL-SO</v>
+          </cell>
+        </row>
+        <row r="1010">
+          <cell r="I1010" t="str">
+            <v>SIE-MEUBILAIR_PAAL_UITNEEMBAAR-SO</v>
+          </cell>
+        </row>
+        <row r="1011">
+          <cell r="I1011" t="str">
+            <v>SIE-MEUBILAIR_PAAL_VAST-SO</v>
+          </cell>
+        </row>
+        <row r="1012">
+          <cell r="I1012" t="str">
+            <v>SIE-MEUBILAIR_PAAL_VERKEERSBORDPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1013">
+          <cell r="I1013" t="str">
+            <v>SIE-MEUBILAIR_PAAL_VLAGGENMAST-SO</v>
+          </cell>
+        </row>
+        <row r="1014">
+          <cell r="I1014" t="str">
+            <v>SIE-MEUBILAIR_PAAL_VRI-SO</v>
+          </cell>
+        </row>
+        <row r="1015">
+          <cell r="I1015" t="str">
+            <v>SIE-MEUBILAIR_PAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1016">
+          <cell r="I1016" t="str">
+            <v>SIE-MEUBILAIR_PARKEERAUTOMAAT-SO</v>
+          </cell>
+        </row>
+        <row r="1017">
+          <cell r="I1017" t="str">
+            <v>SIE-MEUBILAIR_PEUKENPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1018">
+          <cell r="I1018" t="str">
+            <v>SIE-MEUBILAIR_PICKNICKSET</v>
+          </cell>
+        </row>
+        <row r="1019">
+          <cell r="I1019" t="str">
+            <v>SIE-MEUBILAIR_PICKNICKSET-SO</v>
+          </cell>
+        </row>
+        <row r="1020">
+          <cell r="I1020" t="str">
+            <v>SIE-MEUBILAIR_PRAATPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1021">
+          <cell r="I1021" t="str">
+            <v>SIE-MEUBILAIR_PUT_BRANDKRAAN-SO</v>
+          </cell>
+        </row>
+        <row r="1022">
+          <cell r="I1022" t="str">
+            <v>SIE-MEUBILAIR_PUT_BRANDSTOFPUT-SO</v>
+          </cell>
+        </row>
+        <row r="1023">
+          <cell r="I1023" t="str">
+            <v>SIE-MEUBILAIR_PUT_DRAINAGEPUT-SO</v>
+          </cell>
+        </row>
+        <row r="1024">
+          <cell r="I1024" t="str">
+            <v>SIE-MEUBILAIR_PUT_GASPUT-SO</v>
+          </cell>
+        </row>
+        <row r="1025">
+          <cell r="I1025" t="str">
+            <v>SIE-MEUBILAIR_PUT_KOLK-SO</v>
+          </cell>
+        </row>
+        <row r="1026">
+          <cell r="I1026" t="str">
+            <v>SIE-MEUBILAIR_PUT_RIOOLPUT-SO</v>
+          </cell>
+        </row>
+        <row r="1027">
+          <cell r="I1027" t="str">
+            <v>SIE-MEUBILAIR_PUT_WATERLEIDINGPUT-SO</v>
+          </cell>
+        </row>
+        <row r="1028">
+          <cell r="I1028" t="str">
+            <v>SIE-MEUBILAIR_PUT-SO</v>
+          </cell>
+        </row>
+        <row r="1029">
+          <cell r="I1029" t="str">
+            <v>SIE-MEUBILAIR_RECLAMEZUIL-SO</v>
+          </cell>
+        </row>
+        <row r="1030">
+          <cell r="I1030" t="str">
+            <v>SIE-MEUBILAIR_SCHIJNWERPER-SO</v>
+          </cell>
+        </row>
+        <row r="1031">
+          <cell r="I1031" t="str">
+            <v>SIE-MEUBILAIR_SCHRIKHEK-SO</v>
+          </cell>
+        </row>
+        <row r="1032">
+          <cell r="I1032" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_CAMERA-SO</v>
+          </cell>
+        </row>
+        <row r="1033">
+          <cell r="I1033" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_DEBIETMETER-SO</v>
+          </cell>
+        </row>
+        <row r="1034">
+          <cell r="I1034" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_DETECTIELUS-SO</v>
+          </cell>
+        </row>
+        <row r="1035">
+          <cell r="I1035" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_FLITSER-SO</v>
+          </cell>
+        </row>
+        <row r="1036">
+          <cell r="I1036" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_GMS-SO</v>
+          </cell>
+        </row>
+        <row r="1037">
+          <cell r="I1037" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_HOOGTEDETECTIEMETER-SO</v>
+          </cell>
+        </row>
+        <row r="1038">
+          <cell r="I1038" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_LICHTCEL-SO</v>
+          </cell>
+        </row>
+        <row r="1039">
+          <cell r="I1039" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_RADARDETECTOR-SO</v>
+          </cell>
+        </row>
+        <row r="1040">
+          <cell r="I1040" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_WATERSTANDMETER-SO</v>
+          </cell>
+        </row>
+        <row r="1041">
+          <cell r="I1041" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_WEERSTATION-SO</v>
+          </cell>
+        </row>
+        <row r="1042">
+          <cell r="I1042" t="str">
+            <v>SIE-MEUBILAIR_SENSOR_WINDMETER-SO</v>
+          </cell>
+        </row>
+        <row r="1043">
+          <cell r="I1043" t="str">
+            <v>SIE-MEUBILAIR_SENSOR-SO</v>
+          </cell>
+        </row>
+        <row r="1044">
+          <cell r="I1044" t="str">
+            <v>SIE-MEUBILAIR_SIRENE-SO</v>
+          </cell>
+        </row>
+        <row r="1045">
+          <cell r="I1045" t="str">
+            <v>SIE-MEUBILAIR_SLAGBOOM-SO</v>
+          </cell>
+        </row>
+        <row r="1046">
+          <cell r="I1046" t="str">
+            <v>SIE-MEUBILAIR_SNUFFELPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1047">
+          <cell r="I1047" t="str">
+            <v>SIE-MEUBILAIR_SPEELTOESTEL-SO</v>
+          </cell>
+        </row>
+        <row r="1048">
+          <cell r="I1048" t="str">
+            <v>SIE-MEUBILAIR_STADSPLATTEGROND</v>
+          </cell>
+        </row>
+        <row r="1049">
+          <cell r="I1049" t="str">
+            <v>SIE-MEUBILAIR_STRAATPOT_BRANDKRAAN-SO</v>
+          </cell>
+        </row>
+        <row r="1050">
+          <cell r="I1050" t="str">
+            <v>SIE-MEUBILAIR_STRAATPOT_GAS-SO</v>
+          </cell>
+        </row>
+        <row r="1051">
+          <cell r="I1051" t="str">
+            <v>SIE-MEUBILAIR_STRAATPOT_WATER-SO</v>
+          </cell>
+        </row>
+        <row r="1052">
+          <cell r="I1052" t="str">
+            <v>SIE-MEUBILAIR_STROOIRESERVOIR-SO</v>
+          </cell>
+        </row>
+        <row r="1053">
+          <cell r="I1053" t="str">
+            <v>SIE-MEUBILAIR_TANK-SO</v>
+          </cell>
+        </row>
+        <row r="1054">
+          <cell r="I1054" t="str">
+            <v>SIE-MEUBILAIR_TELEFOONCEL-SO</v>
+          </cell>
+        </row>
+        <row r="1055">
+          <cell r="I1055" t="str">
+            <v>SIE-MEUBILAIR_TRAP-SO</v>
+          </cell>
+        </row>
+        <row r="1056">
+          <cell r="I1056" t="str">
+            <v>SIE-MEUBILAIR_VERKEERSLICHT-SO</v>
+          </cell>
+        </row>
+        <row r="1057">
+          <cell r="I1057" t="str">
+            <v>SIE-MEUBILAIR_VLAGGENMAST-SO</v>
+          </cell>
+        </row>
+        <row r="1058">
+          <cell r="I1058" t="str">
+            <v>SIE-MEUBILAIR_WATERPOMP-SO</v>
+          </cell>
+        </row>
+        <row r="1059">
+          <cell r="I1059" t="str">
+            <v>SIE-MEUBILAIR_WATERSTANDMETER-SO</v>
+          </cell>
+        </row>
+        <row r="1060">
+          <cell r="I1060" t="str">
+            <v>SIE-MEUBILAIR_WEERSTATION-SO</v>
+          </cell>
+        </row>
+        <row r="1061">
+          <cell r="I1061" t="str">
+            <v>SIE-MEUBILAIR_WEGWIJZER-SO</v>
+          </cell>
+        </row>
+        <row r="1062">
+          <cell r="I1062" t="str">
+            <v>SIE-MEUBILAIR_WINDZAK-SO</v>
+          </cell>
+        </row>
+        <row r="1063">
+          <cell r="I1063" t="str">
+            <v>SIE-MEUBILAIR_ZITBANK_MET_LEUNING</v>
+          </cell>
+        </row>
+        <row r="1064">
+          <cell r="I1064" t="str">
+            <v>SIE-MEUBILAIR_ZITBANK_ZONDER_LEUNING</v>
+          </cell>
+        </row>
+        <row r="1065">
+          <cell r="I1065" t="str">
+            <v>SIE-MEUBILAIR_ZITBANK-SO</v>
+          </cell>
+        </row>
+        <row r="1066">
+          <cell r="I1066" t="str">
+            <v>SIE-MEUBILAIR_ZONNEPANEEL-SO</v>
+          </cell>
+        </row>
+        <row r="1067">
+          <cell r="I1067" t="str">
+            <v>SIW-POLLER_BEWEEGBAAR-SO</v>
+          </cell>
+        </row>
+        <row r="1068">
+          <cell r="I1068" t="str">
+            <v>SIW-POLLER_SCANPAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1069">
+          <cell r="I1069" t="str">
+            <v>SIW-POLLER_VAST-SO</v>
+          </cell>
+        </row>
+        <row r="1070">
+          <cell r="I1070" t="str">
+            <v>SIW-POLLER-SO</v>
+          </cell>
+        </row>
+        <row r="1071">
+          <cell r="I1071" t="str">
+            <v>SIW-TDI_DETECTIELUS-SO</v>
+          </cell>
+        </row>
+        <row r="1072">
+          <cell r="I1072" t="str">
+            <v>SIW-TDI_DRAAGCONSTRUCTIE_PORTAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1073">
+          <cell r="I1073" t="str">
+            <v>SIW-TDI_DRAAGCONSTRUCTIE_UITHOUDER-SO</v>
+          </cell>
+        </row>
+        <row r="1074">
+          <cell r="I1074" t="str">
+            <v>SIW-TDI_LANTAARN_DOSEERLICHT-SO</v>
+          </cell>
+        </row>
+        <row r="1075">
+          <cell r="I1075" t="str">
+            <v>SIW-TDI_PUTSARMATUUR-SO</v>
+          </cell>
+        </row>
+        <row r="1076">
+          <cell r="I1076" t="str">
+            <v>SIW-TDI_ROODLICHTCAMERA-SO</v>
+          </cell>
+        </row>
+        <row r="1077">
+          <cell r="I1077" t="str">
+            <v>SIW-TDI_SELECTIEVE DETECTIELUS-SO</v>
+          </cell>
+        </row>
+        <row r="1078">
+          <cell r="I1078" t="str">
+            <v>SIW-TDI_VERKEERSREGELTOESTEL-SO</v>
+          </cell>
+        </row>
+        <row r="1079">
+          <cell r="I1079" t="str">
+            <v>SIW-TDI_VOORSEIN_BUS_9OOG-SO</v>
+          </cell>
+        </row>
+        <row r="1080">
+          <cell r="I1080" t="str">
+            <v>SIW-TDI_VOORSEIN_BUS-SO</v>
+          </cell>
+        </row>
+        <row r="1081">
+          <cell r="I1081" t="str">
+            <v>SIW-TDI_VOORWAARSCHUWINGSSEIN-SO</v>
+          </cell>
+        </row>
+        <row r="1082">
+          <cell r="I1082" t="str">
+            <v>SIW-TRAMSIGNALERING_DRAAGCONSTRUCTIE_PORTAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1083">
+          <cell r="I1083" t="str">
+            <v>SIW-TRAMSIGNALERING_PAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1084">
+          <cell r="I1084" t="str">
+            <v>SIW-TRAMSIGNALERING-SO</v>
+          </cell>
+        </row>
+        <row r="1085">
+          <cell r="I1085" t="str">
+            <v>SIW-VRI_(MOTOR)FIETSGEVOELIGEDETECTIELUS-SO</v>
+          </cell>
+        </row>
+        <row r="1086">
+          <cell r="I1086" t="str">
+            <v>SIW-VRI_2LICHTVERKEERSLANTAARN_ROND_2X200mm-SO</v>
+          </cell>
+        </row>
+        <row r="1087">
+          <cell r="I1087" t="str">
+            <v>SIW-VRI_3LICHTVERKEERSLANTAARN_ROND_3X200mm-SO</v>
+          </cell>
+        </row>
+        <row r="1088">
+          <cell r="I1088" t="str">
+            <v>SIW-VRI_3LICHTVERKEERSLANTAARN_ROND_3X300mm-SO</v>
+          </cell>
+        </row>
+        <row r="1089">
+          <cell r="I1089" t="str">
+            <v>SIW-VRI_3LICHTVERKEERSLANTAARN_ROND_3X80mm-SO</v>
+          </cell>
+        </row>
+        <row r="1090">
+          <cell r="I1090" t="str">
+            <v>SIW-VRI_AUTOMAAT-SO</v>
+          </cell>
+        </row>
+        <row r="1091">
+          <cell r="I1091" t="str">
+            <v>SIW-VRI_DETECTIELUS-SO</v>
+          </cell>
+        </row>
+        <row r="1092">
+          <cell r="I1092" t="str">
+            <v>SIW-VRI_DRAAGCONSTRUCTIE_PORTAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1093">
+          <cell r="I1093" t="str">
+            <v>SIW-VRI_DRAAGCONSTRUCTIE_UITHOUDER-SO</v>
+          </cell>
+        </row>
+        <row r="1094">
+          <cell r="I1094" t="str">
+            <v>SIW-VRI_DRUKKNOPSMAST-SO</v>
+          </cell>
+        </row>
+        <row r="1095">
+          <cell r="I1095" t="str">
+            <v>SIW-VRI_LANTAARNS_GEEL-SO</v>
+          </cell>
+        </row>
+        <row r="1096">
+          <cell r="I1096" t="str">
+            <v>SIW-VRI_PUTSARMATUUR-SO</v>
+          </cell>
+        </row>
+        <row r="1097">
+          <cell r="I1097" t="str">
+            <v>SIW-VRI_UNIVERSEELMAST-SO</v>
+          </cell>
+        </row>
+        <row r="1098">
+          <cell r="I1098" t="str">
+            <v>SIW-VRI_VERKEERSLANTAARN_PIJLSJABLOON-SO</v>
+          </cell>
+        </row>
+        <row r="1099">
+          <cell r="I1099" t="str">
+            <v>SIW-VRI_VOORWAARSCHUWINGSSEIN-SO</v>
+          </cell>
+        </row>
+        <row r="1100">
+          <cell r="I1100" t="str">
+            <v>SIW-VS_KAST_BERMKAST-SO</v>
+          </cell>
+        </row>
+        <row r="1101">
+          <cell r="I1101" t="str">
+            <v>SIW-VS_KAST_DS-SO</v>
+          </cell>
+        </row>
+        <row r="1102">
+          <cell r="I1102" t="str">
+            <v>SIW-VS_KAST_LUSKOPPELKAST-SO</v>
+          </cell>
+        </row>
+        <row r="1103">
+          <cell r="I1103" t="str">
+            <v>SIW-VS_KAST_OS DS_LOSSEFUNDATIE-SO</v>
+          </cell>
+        </row>
+        <row r="1104">
+          <cell r="I1104" t="str">
+            <v>SIW-VS_KAST_OS DS_TUSSEN A POOT PORTAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1105">
+          <cell r="I1105" t="str">
+            <v>SIW-VS_KAST_OS_LOSSEFUNDATIE-SO</v>
+          </cell>
+        </row>
+        <row r="1106">
+          <cell r="I1106" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_HORBALK-SO</v>
+          </cell>
+        </row>
+        <row r="1107">
+          <cell r="I1107" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_J37_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1108">
+          <cell r="I1108" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_J37BUS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1109">
+          <cell r="I1109" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_J37BUS-SO</v>
+          </cell>
+        </row>
+        <row r="1110">
+          <cell r="I1110" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_J37-SO</v>
+          </cell>
+        </row>
+        <row r="1111">
+          <cell r="I1111" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_J37TRAM_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1112">
+          <cell r="I1112" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_J37TRAM-SO</v>
+          </cell>
+        </row>
+        <row r="1113">
+          <cell r="I1113" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_KRUIS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1114">
+          <cell r="I1114" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_KRUIS-SO</v>
+          </cell>
+        </row>
+        <row r="1115">
+          <cell r="I1115" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_LINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1116">
+          <cell r="I1116" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_LINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1117">
+          <cell r="I1117" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_RECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1118">
+          <cell r="I1118" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_RECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1119">
+          <cell r="I1119" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_TRAM_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1120">
+          <cell r="I1120" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_TRAM-SO</v>
+          </cell>
+        </row>
+        <row r="1121">
+          <cell r="I1121" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VERTBALK_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1122">
+          <cell r="I1122" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VERTBALK-SO</v>
+          </cell>
+        </row>
+        <row r="1123">
+          <cell r="I1123" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VOETGLINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1124">
+          <cell r="I1124" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VOETGLINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1125">
+          <cell r="I1125" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VOETGRECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1126">
+          <cell r="I1126" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VOETGRECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1127">
+          <cell r="I1127" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VOL_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1128">
+          <cell r="I1128" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VOL-SO</v>
+          </cell>
+        </row>
+        <row r="1129">
+          <cell r="I1129" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VRIJ_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1130">
+          <cell r="I1130" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_VRIJ-SO</v>
+          </cell>
+        </row>
+        <row r="1131">
+          <cell r="I1131" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_WTV_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1132">
+          <cell r="I1132" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_1LICHT_WTV-SO</v>
+          </cell>
+        </row>
+        <row r="1133">
+          <cell r="I1133" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_HEMEL_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1134">
+          <cell r="I1134" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_HEMELLINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1135">
+          <cell r="I1135" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_HEMELLINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1136">
+          <cell r="I1136" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_HEMELRECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1137">
+          <cell r="I1137" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_HEMELRECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1138">
+          <cell r="I1138" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_HEMEL-SO</v>
+          </cell>
+        </row>
+        <row r="1139">
+          <cell r="I1139" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_LINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1140">
+          <cell r="I1140" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_LINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1141">
+          <cell r="I1141" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_RECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1142">
+          <cell r="I1142" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_RECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1143">
+          <cell r="I1143" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_VOL_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1144">
+          <cell r="I1144" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_2LICHT_VOL-SO</v>
+          </cell>
+        </row>
+        <row r="1145">
+          <cell r="I1145" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMEL_AFTELLER_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1146">
+          <cell r="I1146" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMEL_AFTELLER-SO</v>
+          </cell>
+        </row>
+        <row r="1147">
+          <cell r="I1147" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMEL_FIETS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1148">
+          <cell r="I1148" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMEL_FIETS-SO</v>
+          </cell>
+        </row>
+        <row r="1149">
+          <cell r="I1149" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMEL_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1150">
+          <cell r="I1150" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMELLINKS_AFTELLER_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1151">
+          <cell r="I1151" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMELLINKS_AFTELLER-SO</v>
+          </cell>
+        </row>
+        <row r="1152">
+          <cell r="I1152" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMELLINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1153">
+          <cell r="I1153" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMELLINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1154">
+          <cell r="I1154" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMELRECHTS_AFTELLER_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1155">
+          <cell r="I1155" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMELRECHTS_AFTELLER-SO</v>
+          </cell>
+        </row>
+        <row r="1156">
+          <cell r="I1156" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMELRECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1157">
+          <cell r="I1157" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMELRECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1158">
+          <cell r="I1158" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_HEMEL-SO</v>
+          </cell>
+        </row>
+        <row r="1159">
+          <cell r="I1159" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_LINKS_AFTELLER_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1160">
+          <cell r="I1160" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_LINKS_AFTELLER-SO</v>
+          </cell>
+        </row>
+        <row r="1161">
+          <cell r="I1161" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_LINKS_FIETS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1162">
+          <cell r="I1162" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_LINKS_FIETS-SO</v>
+          </cell>
+        </row>
+        <row r="1163">
+          <cell r="I1163" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_LINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1164">
+          <cell r="I1164" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_LINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1165">
+          <cell r="I1165" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_RECHTS_AFTELLER_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1166">
+          <cell r="I1166" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_RECHTS_AFTELLER-SO</v>
+          </cell>
+        </row>
+        <row r="1167">
+          <cell r="I1167" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_RECHTS_FIETS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1168">
+          <cell r="I1168" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_RECHTS_FIETS-SO</v>
+          </cell>
+        </row>
+        <row r="1169">
+          <cell r="I1169" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_RECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1170">
+          <cell r="I1170" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_RECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1171">
+          <cell r="I1171" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_VOL_AFTELLER_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1172">
+          <cell r="I1172" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_VOL_AFTELLER-SO</v>
+          </cell>
+        </row>
+        <row r="1173">
+          <cell r="I1173" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_VOL_FIETS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1174">
+          <cell r="I1174" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_VOL_FIETS-SO</v>
+          </cell>
+        </row>
+        <row r="1175">
+          <cell r="I1175" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_VOL_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1176">
+          <cell r="I1176" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_3LICHT_VOL-SO</v>
+          </cell>
+        </row>
+        <row r="1177">
+          <cell r="I1177" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_BOA-SO</v>
+          </cell>
+        </row>
+        <row r="1178">
+          <cell r="I1178" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_NEGENOOG_LINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1179">
+          <cell r="I1179" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_NEGENOOG_LINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1180">
+          <cell r="I1180" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_NEGENOOG_RECHTDOOR_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1181">
+          <cell r="I1181" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_NEGENOOG_RECHTDOOR-SO</v>
+          </cell>
+        </row>
+        <row r="1182">
+          <cell r="I1182" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_NEGENOOG_RECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1183">
+          <cell r="I1183" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_NEGENOOG_RECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1184">
+          <cell r="I1184" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_NEGENOOG_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1185">
+          <cell r="I1185" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_NEGENOOG-SO</v>
+          </cell>
+        </row>
+        <row r="1186">
+          <cell r="I1186" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_VOETGANGER_INFORMATIEF-SO</v>
+          </cell>
+        </row>
+        <row r="1187">
+          <cell r="I1187" t="str">
+            <v>B-SIW-VRI_LANTAARN_200MM_VOETGANGER-SO</v>
+          </cell>
+        </row>
+        <row r="1188">
+          <cell r="I1188" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_DEELCONFLICTLINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1189">
+          <cell r="I1189" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_DEELCONFLICTLINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1190">
+          <cell r="I1190" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_DEELCONFLICTRECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1191">
+          <cell r="I1191" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_DEELCONFLICTRECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1192">
+          <cell r="I1192" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_FIETSLINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1193">
+          <cell r="I1193" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_FIETSLINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1194">
+          <cell r="I1194" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_FIETSRECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1195">
+          <cell r="I1195" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_FIETSRECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1196">
+          <cell r="I1196" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_HEMEL_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1197">
+          <cell r="I1197" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_HEMELLINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1198">
+          <cell r="I1198" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_HEMELLINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1199">
+          <cell r="I1199" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_HEMELRECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1200">
+          <cell r="I1200" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_HEMELRECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1201">
+          <cell r="I1201" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_HEMEL-SO</v>
+          </cell>
+        </row>
+        <row r="1202">
+          <cell r="I1202" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_HORBALK_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1203">
+          <cell r="I1203" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_HORBALK-SO</v>
+          </cell>
+        </row>
+        <row r="1204">
+          <cell r="I1204" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_J37_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1205">
+          <cell r="I1205" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_J37BUS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1206">
+          <cell r="I1206" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_J37BUS-SO</v>
+          </cell>
+        </row>
+        <row r="1207">
+          <cell r="I1207" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_J37-SO</v>
+          </cell>
+        </row>
+        <row r="1208">
+          <cell r="I1208" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_J37TRAM_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1209">
+          <cell r="I1209" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_J37TRAM-SO</v>
+          </cell>
+        </row>
+        <row r="1210">
+          <cell r="I1210" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_KRUIS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1211">
+          <cell r="I1211" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_KRUIS-SO</v>
+          </cell>
+        </row>
+        <row r="1212">
+          <cell r="I1212" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_LINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1213">
+          <cell r="I1213" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_LINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1214">
+          <cell r="I1214" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_RECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1215">
+          <cell r="I1215" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_RECHTS-SO</v>
+          </cell>
+        </row>
+        <row r="1216">
+          <cell r="I1216" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_TRAM_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1217">
+          <cell r="I1217" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_TRAM-SO</v>
+          </cell>
+        </row>
+        <row r="1218">
+          <cell r="I1218" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_VERTBALK_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1219">
+          <cell r="I1219" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_VERTBALK-SO</v>
+          </cell>
+        </row>
+        <row r="1220">
+          <cell r="I1220" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_VOETGLINKS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1221">
+          <cell r="I1221" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_VOETGLINKS-SO</v>
+          </cell>
+        </row>
+        <row r="1222">
+          <cell r="I1222" t="str">
+            <v>B-SIW-VRI_LANTAARN_300MM_1LICHT_VOETGRECHTS_SCHILD-SO</v>
+          </cell>
+        </row>
+        <row r="1223">
+          <cell r="I1223" t="str">
+            <v>SMO-BODEM_ASBESTGAT_BORING_DIEP-SO</v>
+          </cell>
+        </row>
+        <row r="1224">
+          <cell r="I1224" t="str">
+            <v>SMO-BODEM_ASBESTGAT_BORING-SO</v>
+          </cell>
+        </row>
+        <row r="1225">
+          <cell r="I1225" t="str">
+            <v>SMO-BODEM_ASBESTGAT_PEILBUIS-SO</v>
+          </cell>
+        </row>
+        <row r="1226">
+          <cell r="I1226" t="str">
+            <v>SMO-BODEM_ASBESTGAT-SO</v>
+          </cell>
+        </row>
+        <row r="1227">
+          <cell r="I1227" t="str">
+            <v>SMO-BODEM_BORING_01-SO</v>
+          </cell>
+        </row>
+        <row r="1228">
+          <cell r="I1228" t="str">
+            <v>SMO-BODEM_BORING_02-SO</v>
+          </cell>
+        </row>
+        <row r="1229">
+          <cell r="I1229" t="str">
+            <v>SMO-BODEM_BORING_03-SO</v>
+          </cell>
+        </row>
+        <row r="1230">
+          <cell r="I1230" t="str">
+            <v>SMO-BODEM_BORING_04-SO</v>
+          </cell>
+        </row>
+        <row r="1231">
+          <cell r="I1231" t="str">
+            <v>SMO-BODEM_BORING_05-SO</v>
+          </cell>
+        </row>
+        <row r="1232">
+          <cell r="I1232" t="str">
+            <v>SMO-BODEM_BORING_06-SO</v>
+          </cell>
+        </row>
+        <row r="1233">
+          <cell r="I1233" t="str">
+            <v>SMO-BODEM_BORING_GESTUIT-SO</v>
+          </cell>
+        </row>
+        <row r="1234">
+          <cell r="I1234" t="str">
+            <v>SMO-BODEM_BORING_HANDMATIG_PEILBUIS_1FILTER-SO</v>
+          </cell>
+        </row>
+        <row r="1235">
+          <cell r="I1235" t="str">
+            <v>SMO-BODEM_BORING_HANDMATIG-SO</v>
+          </cell>
+        </row>
+        <row r="1236">
+          <cell r="I1236" t="str">
+            <v>SMO-BODEM_BORING_NIET UITGEVOERD-SO</v>
+          </cell>
+        </row>
+        <row r="1237">
+          <cell r="I1237" t="str">
+            <v>SMO-BODEM_BORING_SCHUIN-SO</v>
+          </cell>
+        </row>
+        <row r="1238">
+          <cell r="I1238" t="str">
+            <v>SMO-BODEM_BORING_VERHARDING-SO</v>
+          </cell>
+        </row>
+        <row r="1239">
+          <cell r="I1239" t="str">
+            <v>SMO-BODEM_BORING-SO</v>
+          </cell>
+        </row>
+        <row r="1240">
+          <cell r="I1240" t="str">
+            <v>SMO-BODEM_CONCENTRATIE_2-SO</v>
+          </cell>
+        </row>
+        <row r="1241">
+          <cell r="I1241" t="str">
+            <v>SMO-BODEM_CONCENTRATIE_4-SO</v>
+          </cell>
+        </row>
+        <row r="1242">
+          <cell r="I1242" t="str">
+            <v>SMO-BODEM_CONCENTRATIE_6-SO</v>
+          </cell>
+        </row>
+        <row r="1243">
+          <cell r="I1243" t="str">
+            <v>SMO-BODEM_GEHALTE-SO</v>
+          </cell>
+        </row>
+        <row r="1244">
+          <cell r="I1244" t="str">
+            <v>SMO-BODEM_HELLINGMETERBUIS-SO</v>
+          </cell>
+        </row>
+        <row r="1245">
+          <cell r="I1245" t="str">
+            <v>SMO-BODEM_MINIFILTER-SO</v>
+          </cell>
+        </row>
+        <row r="1246">
+          <cell r="I1246" t="str">
+            <v>SMO-BODEM_MONSTER_D1-SO</v>
+          </cell>
+        </row>
+        <row r="1247">
+          <cell r="I1247" t="str">
+            <v>SMO-BODEM_MONSTER_D2-SO</v>
+          </cell>
+        </row>
+        <row r="1248">
+          <cell r="I1248" t="str">
+            <v>SMO-BODEM_MONSTER_PUTBODEM-SO</v>
+          </cell>
+        </row>
+        <row r="1249">
+          <cell r="I1249" t="str">
+            <v>SMO-BODEM_MONSTER_PUTWAND-SO</v>
+          </cell>
+        </row>
+        <row r="1250">
+          <cell r="I1250" t="str">
+            <v>SMO-BODEM_NULPUNT-SO</v>
+          </cell>
+        </row>
+        <row r="1251">
+          <cell r="I1251" t="str">
+            <v>SMO-BODEM_PEILBUIS_1FILTER_HANDMATIG-SO</v>
+          </cell>
+        </row>
+        <row r="1252">
+          <cell r="I1252" t="str">
+            <v>SMO-BODEM_PEILBUIS_1FILTER-SO</v>
+          </cell>
+        </row>
+        <row r="1253">
+          <cell r="I1253" t="str">
+            <v>SMO-BODEM_PEILBUIS_2FILTER-SO</v>
+          </cell>
+        </row>
+        <row r="1254">
+          <cell r="I1254" t="str">
+            <v>SMO-BODEM_PEILBUIS_3FILTER-SO</v>
+          </cell>
+        </row>
+        <row r="1255">
+          <cell r="I1255" t="str">
+            <v>SMO-BODEM_PEILBUIS_MIDIFILTER-SO</v>
+          </cell>
+        </row>
+        <row r="1256">
+          <cell r="I1256" t="str">
+            <v>SMO-BODEM_PEILBUIS_MINIFILTER-SO</v>
+          </cell>
+        </row>
+        <row r="1257">
+          <cell r="I1257" t="str">
+            <v>SMO-BODEM_PROEFSLEUF-SO</v>
+          </cell>
+        </row>
+        <row r="1258">
+          <cell r="I1258" t="str">
+            <v>SMO-BODEM_SLIBMONSTER-SO</v>
+          </cell>
+        </row>
+        <row r="1259">
+          <cell r="I1259" t="str">
+            <v>SMO-BODEM_SONDERING_GESTUIT-SO</v>
+          </cell>
+        </row>
+        <row r="1260">
+          <cell r="I1260" t="str">
+            <v>SMO-BODEM_SONDERING_KLEEF_GESTUIT-SO</v>
+          </cell>
+        </row>
+        <row r="1261">
+          <cell r="I1261" t="str">
+            <v>SMO-BODEM_SONDERING_KLEEF_NIET UITGEVOERD-SO</v>
+          </cell>
+        </row>
+        <row r="1262">
+          <cell r="I1262" t="str">
+            <v>SMO-BODEM_SONDERING_KLEEF-SO</v>
+          </cell>
+        </row>
+        <row r="1263">
+          <cell r="I1263" t="str">
+            <v>SMO-BODEM_SONDERING_MIDDELZWAAR_KLEEF-SO</v>
+          </cell>
+        </row>
+        <row r="1264">
+          <cell r="I1264" t="str">
+            <v>SMO-BODEM_SONDERING_MIDDELZWAAR-SO</v>
+          </cell>
+        </row>
+        <row r="1265">
+          <cell r="I1265" t="str">
+            <v>SMO-BODEM_SONDERING_NIET UITGEVOERD-SO</v>
+          </cell>
+        </row>
+        <row r="1266">
+          <cell r="I1266" t="str">
+            <v>SMO-BODEM_SONDERING_SLAGSONDERING-SO</v>
+          </cell>
+        </row>
+        <row r="1267">
+          <cell r="I1267" t="str">
+            <v>SMO-BODEM_SONDERING_ZWAAR_KLEEF-SO</v>
+          </cell>
+        </row>
+        <row r="1268">
+          <cell r="I1268" t="str">
+            <v>SMO-BODEM_SONDERING_ZWAAR-SO</v>
+          </cell>
+        </row>
+        <row r="1269">
+          <cell r="I1269" t="str">
+            <v>SMO-BODEM_SONDERING-SO</v>
+          </cell>
+        </row>
+        <row r="1270">
+          <cell r="I1270" t="str">
+            <v>SMO-BODEM_STEEK_BAGGERLAAG-SO</v>
+          </cell>
+        </row>
+        <row r="1271">
+          <cell r="I1271" t="str">
+            <v>SMO-BODEM_STEEK_VASTEBODEM-SO</v>
+          </cell>
+        </row>
+        <row r="1272">
+          <cell r="I1272" t="str">
+            <v>SMO-BODEM_STEEK_WATERBODEM-SO</v>
+          </cell>
+        </row>
+        <row r="1273">
+          <cell r="I1273" t="str">
+            <v>SMO-BODEM_VASTPUNT-SO</v>
+          </cell>
+        </row>
+        <row r="1274">
+          <cell r="I1274" t="str">
+            <v>SMO-BODEM_WATERSPANNINGSMETER-SO</v>
+          </cell>
+        </row>
+        <row r="1275">
+          <cell r="I1275" t="str">
+            <v>SMO-BODEM_ZAKBAAK-SO</v>
+          </cell>
+        </row>
+        <row r="1276">
+          <cell r="I1276" t="str">
+            <v>SMO-GRONDWATER_FILTER_01-SO</v>
+          </cell>
+        </row>
+        <row r="1277">
+          <cell r="I1277" t="str">
+            <v>SMO-GRONDWATER_FILTER_02-SO</v>
+          </cell>
+        </row>
+        <row r="1278">
+          <cell r="I1278" t="str">
+            <v>SMO-GRONDWATER_GEHALTE-SO</v>
+          </cell>
+        </row>
+        <row r="1279">
+          <cell r="I1279" t="str">
+            <v>SMO-GRONDWATER_STROOMRICHTING-SO</v>
+          </cell>
+        </row>
+        <row r="1280">
+          <cell r="I1280" t="str">
+            <v>SMO-SITUATIE_RUIMTELIJKE EENHEID-SO</v>
+          </cell>
+        </row>
+        <row r="1281">
+          <cell r="I1281" t="str">
+            <v>SOG-BEBOUWING_ENTREE_GARAGE-SO</v>
+          </cell>
+        </row>
+        <row r="1282">
+          <cell r="I1282" t="str">
+            <v>SOG-BEBOUWING_ENTREE-SO</v>
+          </cell>
+        </row>
+        <row r="1283">
+          <cell r="I1283" t="str">
+            <v>SOG-BEBOUWING_FIETSENSTALLING-SO</v>
+          </cell>
+        </row>
+        <row r="1284">
+          <cell r="I1284" t="str">
+            <v>SOG-BEBOUWING_OPENBAAR_TOILET-SO</v>
+          </cell>
+        </row>
+        <row r="1285">
+          <cell r="I1285" t="str">
+            <v>SOG-BEBOUWING_TRAFO_LAGE-SO</v>
+          </cell>
+        </row>
+        <row r="1286">
+          <cell r="I1286" t="str">
+            <v>SOG-ERF_PARKEREN-SO</v>
+          </cell>
+        </row>
+        <row r="1287">
+          <cell r="I1287" t="str">
+            <v>SOG-ERFGRENS_LINKS-D</v>
+          </cell>
+        </row>
+        <row r="1288">
+          <cell r="I1288" t="str">
+            <v>SOG-ERFGRENS_RECHTS-D</v>
+          </cell>
+        </row>
+        <row r="1289">
+          <cell r="I1289" t="str">
+            <v>SOG-ERF-SO</v>
+          </cell>
+        </row>
+        <row r="1290">
+          <cell r="I1290" t="str">
+            <v>SOG-GEVEL_LINKS-D</v>
+          </cell>
+        </row>
+        <row r="1291">
+          <cell r="I1291" t="str">
+            <v>SOG-GEVEL_RECHTS-D</v>
+          </cell>
+        </row>
+        <row r="1292">
+          <cell r="I1292" t="str">
+            <v>SOG-HEK-D</v>
+          </cell>
+        </row>
+        <row r="1293">
+          <cell r="I1293" t="str">
+            <v>SOG-HOOGTEPUNT-SO</v>
+          </cell>
+        </row>
+        <row r="1294">
+          <cell r="I1294" t="str">
+            <v>SOG-ONBEGROEID-SO</v>
+          </cell>
+        </row>
+        <row r="1295">
+          <cell r="I1295" t="str">
+            <v>SOG-RIJRICHTING-SO</v>
+          </cell>
+        </row>
+        <row r="1296">
+          <cell r="I1296" t="str">
+            <v>SOG-SLIK-SO</v>
+          </cell>
+        </row>
+        <row r="1297">
+          <cell r="I1297" t="str">
+            <v>SOG-SLOOTKANT-SO</v>
+          </cell>
+        </row>
+        <row r="1298">
+          <cell r="I1298" t="str">
+            <v>SOG-STRAND-SO</v>
+          </cell>
+        </row>
+        <row r="1299">
+          <cell r="I1299" t="str">
+            <v>SOG-TANK_AARDGAS-SO</v>
+          </cell>
+        </row>
+        <row r="1300">
+          <cell r="I1300" t="str">
+            <v>SOG-TANK_PROPAAN-SO</v>
+          </cell>
+        </row>
+        <row r="1301">
+          <cell r="I1301" t="str">
+            <v>SOG-TANK_SEPTIC-SO</v>
+          </cell>
+        </row>
+        <row r="1302">
+          <cell r="I1302" t="str">
+            <v>SOG-TANK-SO</v>
+          </cell>
+        </row>
+        <row r="1303">
+          <cell r="I1303" t="str">
+            <v>SOG-TAXISTANDPLAATS-SO</v>
+          </cell>
+        </row>
+        <row r="1304">
+          <cell r="I1304" t="str">
+            <v>SOG-WATER_BEEK-SO</v>
+          </cell>
+        </row>
+        <row r="1305">
+          <cell r="I1305" t="str">
+            <v>SOG-WATER_BRON-SO</v>
+          </cell>
+        </row>
+        <row r="1306">
+          <cell r="I1306" t="str">
+            <v>SOG-WATER_GRACHT-SO</v>
+          </cell>
+        </row>
+        <row r="1307">
+          <cell r="I1307" t="str">
+            <v>SOG-WATER_GREPPEL-SO</v>
+          </cell>
+        </row>
+        <row r="1308">
+          <cell r="I1308" t="str">
+            <v>SOG-WATER_HAVEN-SO</v>
+          </cell>
+        </row>
+        <row r="1309">
+          <cell r="I1309" t="str">
+            <v>SOG-WATER_HOUTWAL-SO</v>
+          </cell>
+        </row>
+        <row r="1310">
+          <cell r="I1310" t="str">
+            <v>SOG-WATER_KANAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1311">
+          <cell r="I1311" t="str">
+            <v>SOG-WATER_KWELDER-SO</v>
+          </cell>
+        </row>
+        <row r="1312">
+          <cell r="I1312" t="str">
+            <v>SOG-WATER_MEER-SO</v>
+          </cell>
+        </row>
+        <row r="1313">
+          <cell r="I1313" t="str">
+            <v>SOG-WATER_RIVIER-SO</v>
+          </cell>
+        </row>
+        <row r="1314">
+          <cell r="I1314" t="str">
+            <v>SOG-WATER_SLOOT-SO</v>
+          </cell>
+        </row>
+        <row r="1315">
+          <cell r="I1315" t="str">
+            <v>SOG-WATERLIJN-D</v>
+          </cell>
+        </row>
+        <row r="1316">
+          <cell r="I1316" t="str">
+            <v>SOG-WATER-SO</v>
+          </cell>
+        </row>
+        <row r="1317">
+          <cell r="I1317" t="str">
+            <v>SOG-ZANDVERSTUIVING-SO</v>
+          </cell>
+        </row>
+        <row r="1318">
+          <cell r="I1318" t="str">
+            <v>SOV-AARDING-SO</v>
+          </cell>
+        </row>
+        <row r="1319">
+          <cell r="I1319" t="str">
+            <v>SOV-ARMATUUR_BOLDER-SO</v>
+          </cell>
+        </row>
+        <row r="1320">
+          <cell r="I1320" t="str">
+            <v>SOV-ARMATUUR_COMPACT_FLUOR_1x24W-SO</v>
+          </cell>
+        </row>
+        <row r="1321">
+          <cell r="I1321" t="str">
+            <v>SOV-ARMATUUR_COMPACT_FLUOR_1x36W-SO</v>
+          </cell>
+        </row>
+        <row r="1322">
+          <cell r="I1322" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_1x100W-SO</v>
+          </cell>
+        </row>
+        <row r="1323">
+          <cell r="I1323" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_1x150W-SO</v>
+          </cell>
+        </row>
+        <row r="1324">
+          <cell r="I1324" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_1x250W-SO</v>
+          </cell>
+        </row>
+        <row r="1325">
+          <cell r="I1325" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_1x400W-SO</v>
+          </cell>
+        </row>
+        <row r="1326">
+          <cell r="I1326" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_1x50W-SO</v>
+          </cell>
+        </row>
+        <row r="1327">
+          <cell r="I1327" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_1x70W_SPECIAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1328">
+          <cell r="I1328" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_1x70W-SO</v>
+          </cell>
+        </row>
+        <row r="1329">
+          <cell r="I1329" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_2x100W-SO</v>
+          </cell>
+        </row>
+        <row r="1330">
+          <cell r="I1330" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_2x150W-SO</v>
+          </cell>
+        </row>
+        <row r="1331">
+          <cell r="I1331" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_2x250W-SO</v>
+          </cell>
+        </row>
+        <row r="1332">
+          <cell r="I1332" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_2x400W-SO</v>
+          </cell>
+        </row>
+        <row r="1333">
+          <cell r="I1333" t="str">
+            <v>SOV-ARMATUUR_HD_NATRIUM_4x100W-SO</v>
+          </cell>
+        </row>
+        <row r="1334">
+          <cell r="I1334" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x131W-SO</v>
+          </cell>
+        </row>
+        <row r="1335">
+          <cell r="I1335" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x135W_TUNNEL-SO</v>
+          </cell>
+        </row>
+        <row r="1336">
+          <cell r="I1336" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x135W-SO</v>
+          </cell>
+        </row>
+        <row r="1337">
+          <cell r="I1337" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x180W_TUNNEL-SO</v>
+          </cell>
+        </row>
+        <row r="1338">
+          <cell r="I1338" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x180W-SO</v>
+          </cell>
+        </row>
+        <row r="1339">
+          <cell r="I1339" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x35W_TUNNEL-SO</v>
+          </cell>
+        </row>
+        <row r="1340">
+          <cell r="I1340" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x35W-SO</v>
+          </cell>
+        </row>
+        <row r="1341">
+          <cell r="I1341" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x55W_TUNNEL-SO</v>
+          </cell>
+        </row>
+        <row r="1342">
+          <cell r="I1342" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x55W-SO</v>
+          </cell>
+        </row>
+        <row r="1343">
+          <cell r="I1343" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x90W_TUNNEL-SO</v>
+          </cell>
+        </row>
+        <row r="1344">
+          <cell r="I1344" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x90W-SO</v>
+          </cell>
+        </row>
+        <row r="1345">
+          <cell r="I1345" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1x91W-SO</v>
+          </cell>
+        </row>
+        <row r="1346">
+          <cell r="I1346" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1xE18W-SO</v>
+          </cell>
+        </row>
+        <row r="1347">
+          <cell r="I1347" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1xE26W-SO</v>
+          </cell>
+        </row>
+        <row r="1348">
+          <cell r="I1348" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1xE36W-SO</v>
+          </cell>
+        </row>
+        <row r="1349">
+          <cell r="I1349" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_1xE66W-SO</v>
+          </cell>
+        </row>
+        <row r="1350">
+          <cell r="I1350" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_TL_DUBBEL-SO</v>
+          </cell>
+        </row>
+        <row r="1351">
+          <cell r="I1351" t="str">
+            <v>SOV-ARMATUUR_LD_NATRIUM_TL_ENKEL-SO</v>
+          </cell>
+        </row>
+        <row r="1352">
+          <cell r="I1352" t="str">
+            <v>SOV-ARMATUUR_SCHIJNWERPER_HD_NATRIUM_1x150W-SO</v>
+          </cell>
+        </row>
+        <row r="1353">
+          <cell r="I1353" t="str">
+            <v>SOV-ARMATUUR_SCHIJNWERPER_HD_NATRIUM_1x250W-SO</v>
+          </cell>
+        </row>
+        <row r="1354">
+          <cell r="I1354" t="str">
+            <v>SOV-ARMATUUR_SCHIJNWERPER_HD_NATRIUM_1x400W-SO</v>
+          </cell>
+        </row>
+        <row r="1355">
+          <cell r="I1355" t="str">
+            <v>SOV-ARMATUUR_SCHIJNWERPER_HD_NATRIUM_2x400W-SO</v>
+          </cell>
+        </row>
+        <row r="1356">
+          <cell r="I1356" t="str">
+            <v>SOV-ARMATUUR_SCHIJNWERPER-SO</v>
+          </cell>
+        </row>
+        <row r="1357">
+          <cell r="I1357" t="str">
+            <v>SOV-ARMATUUR_SPECIAAL_1x70W-SO</v>
+          </cell>
+        </row>
+        <row r="1358">
+          <cell r="I1358" t="str">
+            <v>SOV-ARMATUUR_SPOT_01-SO</v>
+          </cell>
+        </row>
+        <row r="1359">
+          <cell r="I1359" t="str">
+            <v>SOV-ARMATUUR_SPOT_02-SO</v>
+          </cell>
+        </row>
+        <row r="1360">
+          <cell r="I1360" t="str">
+            <v>SOV-ARMATUUR_TL_1x58W_TUNNEL-SO</v>
+          </cell>
+        </row>
+        <row r="1361">
+          <cell r="I1361" t="str">
+            <v>SOV-ARMATUUR-SO</v>
+          </cell>
+        </row>
+        <row r="1362">
+          <cell r="I1362" t="str">
+            <v>SOV-GRONDSPOT_01-SO</v>
+          </cell>
+        </row>
+        <row r="1363">
+          <cell r="I1363" t="str">
+            <v>SOV-GRONDSPOT_02-SO</v>
+          </cell>
+        </row>
+        <row r="1364">
+          <cell r="I1364" t="str">
+            <v>SOV-GRONDSPOT-SO</v>
+          </cell>
+        </row>
+        <row r="1365">
+          <cell r="I1365" t="str">
+            <v>SOV-HULP_AANSLUITPUNT-SO</v>
+          </cell>
+        </row>
+        <row r="1366">
+          <cell r="I1366" t="str">
+            <v>SOV-HULP_LAS_COMMUNICATIEKABEL-SO</v>
+          </cell>
+        </row>
+        <row r="1367">
+          <cell r="I1367" t="str">
+            <v>SOV-HULP_LAS_SIGNAALGEVERKABEL-SO</v>
+          </cell>
+        </row>
+        <row r="1368">
+          <cell r="I1368" t="str">
+            <v>SOV-HULP_MOF_AFDEKMOF-SO</v>
+          </cell>
+        </row>
+        <row r="1369">
+          <cell r="I1369" t="str">
+            <v>SOV-HULP_MOF_AFTAKMOF-SO</v>
+          </cell>
+        </row>
+        <row r="1370">
+          <cell r="I1370" t="str">
+            <v>SOV-HULP_MOF_EINDMOF-SO</v>
+          </cell>
+        </row>
+        <row r="1371">
+          <cell r="I1371" t="str">
+            <v>SOV-HULP_MOF_VERBINDING_AFTAKMOF-SO</v>
+          </cell>
+        </row>
+        <row r="1372">
+          <cell r="I1372" t="str">
+            <v>SOV-HULP_MOF_VERBINDING_HDPE-SO</v>
+          </cell>
+        </row>
+        <row r="1373">
+          <cell r="I1373" t="str">
+            <v>SOV-HULP_MOF_VERBINDINGSMOF-SO</v>
+          </cell>
+        </row>
+        <row r="1374">
+          <cell r="I1374" t="str">
+            <v>SOV-HULP_MOF_VERGROTELUSKOPPELMOF-SO</v>
+          </cell>
+        </row>
+        <row r="1375">
+          <cell r="I1375" t="str">
+            <v>SOV-HULP_MOF-SO</v>
+          </cell>
+        </row>
+        <row r="1376">
+          <cell r="I1376" t="str">
+            <v>SOV-KABELROL-SO</v>
+          </cell>
+        </row>
+        <row r="1377">
+          <cell r="I1377" t="str">
+            <v>SOV-KAST_DOORVERBINDINGSKAST-SO</v>
+          </cell>
+        </row>
+        <row r="1378">
+          <cell r="I1378" t="str">
+            <v>SOV-KAST_HOOGSPANNING-SO</v>
+          </cell>
+        </row>
+        <row r="1379">
+          <cell r="I1379" t="str">
+            <v>SOV-KAST_ONTSTEEKPUNT-SO</v>
+          </cell>
+        </row>
+        <row r="1380">
+          <cell r="I1380" t="str">
+            <v>SOV-KAST_PUTKAST-SO</v>
+          </cell>
+        </row>
+        <row r="1381">
+          <cell r="I1381" t="str">
+            <v>SOV-KAST_SEKTIEKAST-SO</v>
+          </cell>
+        </row>
+        <row r="1382">
+          <cell r="I1382" t="str">
+            <v>SOV-KAST_TRANSFORMATORKAST-SO</v>
+          </cell>
+        </row>
+        <row r="1383">
+          <cell r="I1383" t="str">
+            <v>SOV-KAST_VOEDINGSPUNT-SO</v>
+          </cell>
+        </row>
+        <row r="1384">
+          <cell r="I1384" t="str">
+            <v>SOV-KAST-SO</v>
+          </cell>
+        </row>
+        <row r="1385">
+          <cell r="I1385" t="str">
+            <v>SOV-LICHTMAST_1UITHOUDER-SO</v>
+          </cell>
+        </row>
+        <row r="1386">
+          <cell r="I1386" t="str">
+            <v>SOV-LICHTMAST_2UITHOUDER_1LAAG-SO</v>
+          </cell>
+        </row>
+        <row r="1387">
+          <cell r="I1387" t="str">
+            <v>SOV-LICHTMAST_2UITHOUDER-SO</v>
+          </cell>
+        </row>
+        <row r="1388">
+          <cell r="I1388" t="str">
+            <v>SOV-LICHTMAST_3UITHOUDER-SO</v>
+          </cell>
+        </row>
+        <row r="1389">
+          <cell r="I1389" t="str">
+            <v>SOV-LICHTMAST_ALUMINIUM_OP VOETPLAAT-SO</v>
+          </cell>
+        </row>
+        <row r="1390">
+          <cell r="I1390" t="str">
+            <v>SOV-LICHTMAST_ALUMINIUM-SO</v>
+          </cell>
+        </row>
+        <row r="1391">
+          <cell r="I1391" t="str">
+            <v>SOV-LICHTMAST_HANG-SO</v>
+          </cell>
+        </row>
+        <row r="1392">
+          <cell r="I1392" t="str">
+            <v>SOV-LICHTMAST_LIJNVERLICHTING_EINDMAST OP VOETPLAAT-SO</v>
+          </cell>
+        </row>
+        <row r="1393">
+          <cell r="I1393" t="str">
+            <v>SOV-LICHTMAST_LIJNVERLICHTING_EINDMAST-SO</v>
+          </cell>
+        </row>
+        <row r="1394">
+          <cell r="I1394" t="str">
+            <v>SOV-LICHTMAST_LIJNVERLICHTING_TUSSENAFSPANMAST OP VOETPLAAT-SO</v>
+          </cell>
+        </row>
+        <row r="1395">
+          <cell r="I1395" t="str">
+            <v>SOV-LICHTMAST_LIJNVERLICHTING_TUSSENAFSPANMAST-SO</v>
+          </cell>
+        </row>
+        <row r="1396">
+          <cell r="I1396" t="str">
+            <v>SOV-LICHTMAST_LIJNVERLICHTING_TUSSENMAST OP VOETPLAAT-SO</v>
+          </cell>
+        </row>
+        <row r="1397">
+          <cell r="I1397" t="str">
+            <v>SOV-LICHTMAST_LIJNVERLICHTING_TUSSENMAST-SO</v>
+          </cell>
+        </row>
+        <row r="1398">
+          <cell r="I1398" t="str">
+            <v>SOV-LICHTMAST_SPOT-SO</v>
+          </cell>
+        </row>
+        <row r="1399">
+          <cell r="I1399" t="str">
+            <v>SOV-LICHTMAST_STAAL_MET BETONFUNDERING-SO</v>
+          </cell>
+        </row>
+        <row r="1400">
+          <cell r="I1400" t="str">
+            <v>SOV-LICHTMAST_STAAL_OP BETONPLAAT-SO</v>
+          </cell>
+        </row>
+        <row r="1401">
+          <cell r="I1401" t="str">
+            <v>SOV-LICHTMAST_STAAL_OP VOETPLAAT-SO</v>
+          </cell>
+        </row>
+        <row r="1402">
+          <cell r="I1402" t="str">
+            <v>SOV-LICHTMAST_STAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1403">
+          <cell r="I1403" t="str">
+            <v>SOV-LICHTMAST_WAND-SO</v>
+          </cell>
+        </row>
+        <row r="1404">
+          <cell r="I1404" t="str">
+            <v>SOV-LICHTMAST-D</v>
+          </cell>
+        </row>
+        <row r="1405">
+          <cell r="I1405" t="str">
+            <v>SOV-LICHTMAST-SO</v>
+          </cell>
+        </row>
+        <row r="1406">
+          <cell r="I1406" t="str">
+            <v>SRI-AFSCHEIDER_IBA-SO</v>
+          </cell>
+        </row>
+        <row r="1407">
+          <cell r="I1407" t="str">
+            <v>SRI-AFSCHEIDER_OLIE_BENZINE-SO</v>
+          </cell>
+        </row>
+        <row r="1408">
+          <cell r="I1408" t="str">
+            <v>SRI-AFSCHEIDER_SLIBVANGPUT-SO</v>
+          </cell>
+        </row>
+        <row r="1409">
+          <cell r="I1409" t="str">
+            <v>SRI-AFSCHEIDER_VET-SO</v>
+          </cell>
+        </row>
+        <row r="1410">
+          <cell r="I1410" t="str">
+            <v>SRI-AFSCHEIDER_ZETMEEL-SO</v>
+          </cell>
+        </row>
+        <row r="1411">
+          <cell r="I1411" t="str">
+            <v>SRI-AFSCHEIDER-SO</v>
+          </cell>
+        </row>
+        <row r="1412">
+          <cell r="I1412" t="str">
+            <v>SRI-BOB-SO</v>
+          </cell>
+        </row>
+        <row r="1413">
+          <cell r="I1413" t="str">
+            <v>SRI-DRAIN_T STUK-SO</v>
+          </cell>
+        </row>
+        <row r="1414">
+          <cell r="I1414" t="str">
+            <v>SRI-DRAIN_TALUDGOOT-SO</v>
+          </cell>
+        </row>
+        <row r="1415">
+          <cell r="I1415" t="str">
+            <v>SRI-GEMAAL-SO</v>
+          </cell>
+        </row>
+        <row r="1416">
+          <cell r="I1416" t="str">
+            <v>SRI-HULP_AANSLUITEN-SO</v>
+          </cell>
+        </row>
+        <row r="1417">
+          <cell r="I1417" t="str">
+            <v>SRI-HULP_AFSLUITER_DRIEWEG-SO</v>
+          </cell>
+        </row>
+        <row r="1418">
+          <cell r="I1418" t="str">
+            <v>SRI-HULP_AFSLUITER_HAAKS-SO</v>
+          </cell>
+        </row>
+        <row r="1419">
+          <cell r="I1419" t="str">
+            <v>SRI-HULP_AFSLUITER_HANDB-SO</v>
+          </cell>
+        </row>
+        <row r="1420">
+          <cell r="I1420" t="str">
+            <v>SRI-HULP_AFSLUITER_KLEP-SO</v>
+          </cell>
+        </row>
+        <row r="1421">
+          <cell r="I1421" t="str">
+            <v>SRI-HULP_AFSLUITER_KOGEL-SO</v>
+          </cell>
+        </row>
+        <row r="1422">
+          <cell r="I1422" t="str">
+            <v>SRI-HULP_AFSLUITER_SPINDEL-SO</v>
+          </cell>
+        </row>
+        <row r="1423">
+          <cell r="I1423" t="str">
+            <v>SRI-HULP_AFSLUITER-SO</v>
+          </cell>
+        </row>
+        <row r="1424">
+          <cell r="I1424" t="str">
+            <v>SRI-HULP_BELUCHTING_ONTLUCHTING-SO</v>
+          </cell>
+        </row>
+        <row r="1425">
+          <cell r="I1425" t="str">
+            <v>SRI-HULP_BELUCHTING-SO</v>
+          </cell>
+        </row>
+        <row r="1426">
+          <cell r="I1426" t="str">
+            <v>SRI-HULP_CONTROLEPUT-SO</v>
+          </cell>
+        </row>
+        <row r="1427">
+          <cell r="I1427" t="str">
+            <v>SRI-HULP_DOORVOEREN-SO</v>
+          </cell>
+        </row>
+        <row r="1428">
+          <cell r="I1428" t="str">
+            <v>SRI-HULP_EINDKAP-SO</v>
+          </cell>
+        </row>
+        <row r="1429">
+          <cell r="I1429" t="str">
+            <v>SRI-HULP_INLAAT_125MM-SO</v>
+          </cell>
+        </row>
+        <row r="1430">
+          <cell r="I1430" t="str">
+            <v>SRI-HULP_INLAAT_160MM-SO</v>
+          </cell>
+        </row>
+        <row r="1431">
+          <cell r="I1431" t="str">
+            <v>SRI-HULP_INLAAT_KOLK-SO</v>
+          </cell>
+        </row>
+        <row r="1432">
+          <cell r="I1432" t="str">
+            <v>SRI-HULP_INLAAT-SO</v>
+          </cell>
+        </row>
+        <row r="1433">
+          <cell r="I1433" t="str">
+            <v>SRI-HULP_KEERKLEP-SO</v>
+          </cell>
+        </row>
+        <row r="1434">
+          <cell r="I1434" t="str">
+            <v>SRI-HULP_ONTLUCHTING-SO</v>
+          </cell>
+        </row>
+        <row r="1435">
+          <cell r="I1435" t="str">
+            <v>SRI-HULP_ONTSTOPPINGSSTUK-SO</v>
+          </cell>
+        </row>
+        <row r="1436">
+          <cell r="I1436" t="str">
+            <v>SRI-HULP_SCHOONMAAKSTUK-SO</v>
+          </cell>
+        </row>
+        <row r="1437">
+          <cell r="I1437" t="str">
+            <v>SRI-HULP_SPUIKRAAN-SO</v>
+          </cell>
+        </row>
+        <row r="1438">
+          <cell r="I1438" t="str">
+            <v>SRI-HULP_VERLOOPSTUK-SO</v>
+          </cell>
+        </row>
+        <row r="1439">
+          <cell r="I1439" t="str">
+            <v>SRI-HULP_VLINDERKLEP-SO</v>
+          </cell>
+        </row>
+        <row r="1440">
+          <cell r="I1440" t="str">
+            <v>SRI-KOLK_COMBINATIE_01-SO</v>
+          </cell>
+        </row>
+        <row r="1441">
+          <cell r="I1441" t="str">
+            <v>SRI-KOLK_COMBINATIE_02-SO</v>
+          </cell>
+        </row>
+        <row r="1442">
+          <cell r="I1442" t="str">
+            <v>SRI-KOLK_COMBINATIE-SO</v>
+          </cell>
+        </row>
+        <row r="1443">
+          <cell r="I1443" t="str">
+            <v>SRI-KOLK_GELEIDE-SO</v>
+          </cell>
+        </row>
+        <row r="1444">
+          <cell r="I1444" t="str">
+            <v>SRI-KOLK_IFILTR_01-SO</v>
+          </cell>
+        </row>
+        <row r="1445">
+          <cell r="I1445" t="str">
+            <v>SRI-KOLK_IFILTR_02-SO</v>
+          </cell>
+        </row>
+        <row r="1446">
+          <cell r="I1446" t="str">
+            <v>SRI-KOLK_IFILTR-SO</v>
+          </cell>
+        </row>
+        <row r="1447">
+          <cell r="I1447" t="str">
+            <v>SRI-KOLK_RWS_01-SO</v>
+          </cell>
+        </row>
+        <row r="1448">
+          <cell r="I1448" t="str">
+            <v>SRI-KOLK_RWS_02-SO</v>
+          </cell>
+        </row>
+        <row r="1449">
+          <cell r="I1449" t="str">
+            <v>SRI-KOLK_RWS-SO</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,10 +6402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE5BC04-66D3-4260-9BBA-96810A46C89E}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,12 +6417,12 @@
     <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -624,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -635,11 +6445,12 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
+      <c r="F2" s="1"/>
+      <c r="K2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -647,11 +6458,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
+      <c r="F3" s="1"/>
+      <c r="K3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -659,11 +6471,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
+      <c r="F4" s="1"/>
+      <c r="K4" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -671,11 +6484,12 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
+      <c r="F5" s="1"/>
+      <c r="K5" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -685,10 +6499,13 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -696,118 +6513,142 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
+      <c r="F7" s="1"/>
+      <c r="K7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
+      <c r="F8" s="1"/>
+      <c r="K8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="K9" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
+      <c r="F10" s="1"/>
+      <c r="K10" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
+      <c r="F11" s="1"/>
+      <c r="K11" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
+      <c r="F12" s="1"/>
+      <c r="K12" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -815,160 +6656,358 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3"/>
+      <c r="K17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="K19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="K20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="K22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="K24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="K28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="K34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="K35" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>38</v>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>47</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935ECC26-C9DC-444F-A3AB-F50BF9462B15}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A292"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
+++ b/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B3666D-8886-4D33-8D69-54306D02E2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FA5DD6-F342-41B1-803D-5D7194A1DA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>Kleuren</t>
   </si>
@@ -165,9 +165,6 @@
     <t>VW</t>
   </si>
   <si>
-    <t>verwerk imports</t>
-  </si>
-  <si>
     <t>WH</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Voor alle hoofdgroepen</t>
+  </si>
+  <si>
+    <t>als tijd, aanpassen kleuren nav michel</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="E29:F29"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,7 +748,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -761,7 +761,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -774,7 +774,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -787,21 +787,23 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="3"/>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -814,12 +816,12 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -831,7 +833,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -844,7 +846,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -861,7 +863,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -878,7 +880,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -895,12 +897,12 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -908,12 +910,12 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -921,7 +923,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -938,30 +940,32 @@
         <v>11</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -970,7 +974,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="3"/>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -990,12 +994,12 @@
       </c>
       <c r="G18" s="3"/>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1003,7 +1007,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1020,7 +1024,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1034,7 +1038,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1051,7 +1055,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="K22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1064,7 +1068,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="K23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1081,12 +1085,12 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="K24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1094,12 +1098,12 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1111,7 +1115,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1126,7 +1130,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1139,45 +1143,54 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="3"/>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3"/>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1189,27 +1202,27 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="G32" s="3"/>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="G33" s="3"/>
       <c r="K33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -1219,27 +1232,27 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="K34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="K36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -1281,7 +1294,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
+++ b/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FA5DD6-F342-41B1-803D-5D7194A1DA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29144C6-38B6-4D37-B43E-59FF88C96F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Kleuren</t>
   </si>
@@ -304,6 +304,30 @@
   </si>
   <si>
     <t>als tijd, aanpassen kleuren nav michel</t>
+  </si>
+  <si>
+    <t>OBJECTENTABEL VERKORT</t>
+  </si>
+  <si>
+    <t>OBJECTENTABEL LANG</t>
+  </si>
+  <si>
+    <t>FF 1 HANDMATIG INVULLEN</t>
+  </si>
+  <si>
+    <t>ONBEGRIJPELIJKE GEBREKEN IN PUBLICATIE V</t>
+  </si>
+  <si>
+    <t>FF 2 HANDMATIG INVULLEN</t>
+  </si>
+  <si>
+    <t>CSV UPDATEN</t>
+  </si>
+  <si>
+    <t>SAM-AS-SPOOR</t>
+  </si>
+  <si>
+    <t>SPOORSE OBJECTEN</t>
   </si>
 </sst>
 </file>
@@ -706,7 +730,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,6 +740,7 @@
     <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -737,6 +762,12 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -747,6 +778,10 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="K2" t="s">
         <v>52</v>
       </c>
@@ -760,6 +795,10 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="K3" t="s">
         <v>53</v>
       </c>
@@ -773,6 +812,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="K4" t="s">
         <v>54</v>
       </c>
@@ -786,6 +827,8 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="K5" t="s">
         <v>55</v>
       </c>
@@ -801,7 +844,8 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="K6" t="s">
         <v>56</v>
       </c>
@@ -815,6 +859,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="K7" t="s">
         <v>57</v>
       </c>
@@ -823,15 +869,13 @@
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="K8" t="s">
         <v>58</v>
       </c>
@@ -845,6 +889,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="K9" t="s">
         <v>59</v>
       </c>
@@ -853,15 +898,12 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="K10" t="s">
         <v>60</v>
       </c>
@@ -870,15 +912,12 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="H11" s="2"/>
       <c r="K11" t="s">
         <v>61</v>
       </c>
@@ -887,15 +926,12 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+      <c r="H12" s="2"/>
       <c r="K12" t="s">
         <v>62</v>
       </c>
@@ -909,6 +945,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="K13" t="s">
         <v>63</v>
       </c>
@@ -922,6 +959,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="K14" t="s">
         <v>64</v>
       </c>
@@ -930,19 +968,12 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F15" s="1"/>
+      <c r="H15" s="2"/>
       <c r="K15" t="s">
         <v>65</v>
       </c>
@@ -958,7 +989,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
       <c r="K16" t="s">
         <v>66</v>
       </c>
@@ -972,7 +1003,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
       <c r="K17" t="s">
         <v>67</v>
       </c>
@@ -981,18 +1012,12 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="2"/>
       <c r="K18" t="s">
         <v>68</v>
       </c>
@@ -1006,6 +1031,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="K19" t="s">
         <v>69</v>
       </c>
@@ -1023,6 +1049,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
+      <c r="H20" s="2"/>
       <c r="K20" t="s">
         <v>70</v>
       </c>
@@ -1031,12 +1058,12 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="H21" s="2"/>
       <c r="K21" t="s">
         <v>71</v>
       </c>
@@ -1045,15 +1072,12 @@
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="K22" t="s">
         <v>72</v>
       </c>
@@ -1067,6 +1091,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="K23" t="s">
         <v>73</v>
       </c>
@@ -1084,6 +1109,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
+      <c r="H24" s="2"/>
       <c r="K24" t="s">
         <v>74</v>
       </c>
@@ -1097,6 +1123,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="K25" t="s">
         <v>75</v>
       </c>
@@ -1114,6 +1141,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="K26" t="s">
         <v>76</v>
       </c>
@@ -1129,6 +1157,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
+      <c r="H27" s="2"/>
       <c r="K27" t="s">
         <v>77</v>
       </c>
@@ -1142,6 +1171,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="K28" t="s">
         <v>78</v>
       </c>
@@ -1150,16 +1180,15 @@
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="1"/>
       <c r="K29" t="s">
         <v>79</v>
       </c>
@@ -1175,7 +1204,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
       <c r="K30" t="s">
         <v>80</v>
       </c>
@@ -1189,6 +1218,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="K31" t="s">
         <v>81</v>
       </c>
@@ -1202,7 +1232,9 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="H32" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="K32" t="s">
         <v>82</v>
       </c>
@@ -1220,7 +1252,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="H33" s="1"/>
       <c r="K33" t="s">
         <v>83</v>
       </c>
@@ -1229,8 +1261,17 @@
       <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K34" t="s">
         <v>84</v>
       </c>
@@ -1239,8 +1280,12 @@
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="K35" t="s">
         <v>85</v>
       </c>
@@ -1249,8 +1294,12 @@
       <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="2"/>
       <c r="K36" t="s">
         <v>86</v>
       </c>

--- a/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
+++ b/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29144C6-38B6-4D37-B43E-59FF88C96F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8331524-D039-4F60-BAFB-DC984524F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>Kleuren</t>
   </si>
@@ -90,15 +90,9 @@
     <t>arceringsbibliotheken</t>
   </si>
   <si>
-    <t>nieuwe tabel, definities</t>
-  </si>
-  <si>
     <t>disciplines</t>
   </si>
   <si>
-    <t>nieuwe tabel, beheer opnemen in lijst</t>
-  </si>
-  <si>
     <t xml:space="preserve">hoofdgroepen </t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>lijnkleuren</t>
   </si>
   <si>
-    <t>microstation nummer moet nog mee in de query</t>
-  </si>
-  <si>
     <t>GK</t>
   </si>
   <si>
@@ -312,22 +303,28 @@
     <t>OBJECTENTABEL LANG</t>
   </si>
   <si>
-    <t>FF 1 HANDMATIG INVULLEN</t>
-  </si>
-  <si>
-    <t>ONBEGRIJPELIJKE GEBREKEN IN PUBLICATIE V</t>
-  </si>
-  <si>
-    <t>FF 2 HANDMATIG INVULLEN</t>
-  </si>
-  <si>
-    <t>CSV UPDATEN</t>
-  </si>
-  <si>
-    <t>SAM-AS-SPOOR</t>
-  </si>
-  <si>
-    <t>SPOORSE OBJECTEN</t>
+    <t>landmeten</t>
+  </si>
+  <si>
+    <t>MOLGOOT LIJNGOOT</t>
+  </si>
+  <si>
+    <t>ASSETBESCHRIJVING</t>
+  </si>
+  <si>
+    <t>PUNTTONG</t>
+  </si>
+  <si>
+    <t>TRACE v</t>
+  </si>
+  <si>
+    <t>verkanting</t>
+  </si>
+  <si>
+    <t>!!!!! VERKEERSBORDEN OBJECTEN</t>
+  </si>
+  <si>
+    <t>m50</t>
   </si>
 </sst>
 </file>
@@ -343,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,12 +356,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,12 +378,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -729,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE5BC04-66D3-4260-9BBA-96810A46C89E}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,7 +730,7 @@
     <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -762,11 +752,11 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>89</v>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -778,12 +768,12 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -795,12 +785,10 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -815,7 +803,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -830,7 +818,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -838,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -862,12 +850,12 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -877,7 +865,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -889,419 +877,439 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
+      <c r="G16" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="K19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
+      <c r="G21" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="K23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="K24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="K25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="K28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="K29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="2"/>
       <c r="K32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="K33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="H34" s="2"/>
       <c r="K34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
+      <c r="G36" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="K36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -1313,37 +1321,37 @@
       <c r="A38" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
+++ b/ontwikkeling/voorstel 5.1/5.1 checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8331524-D039-4F60-BAFB-DC984524F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D3C37-7561-42C0-8047-7588A22F342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7E2FD8D-6DE2-496D-85F1-D19C23E418FB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>Kleuren</t>
   </si>
@@ -303,28 +303,7 @@
     <t>OBJECTENTABEL LANG</t>
   </si>
   <si>
-    <t>landmeten</t>
-  </si>
-  <si>
-    <t>MOLGOOT LIJNGOOT</t>
-  </si>
-  <si>
-    <t>ASSETBESCHRIJVING</t>
-  </si>
-  <si>
-    <t>PUNTTONG</t>
-  </si>
-  <si>
-    <t>TRACE v</t>
-  </si>
-  <si>
     <t>verkanting</t>
-  </si>
-  <si>
-    <t>!!!!! VERKEERSBORDEN OBJECTEN</t>
-  </si>
-  <si>
-    <t>m50</t>
   </si>
 </sst>
 </file>
@@ -719,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE5BC04-66D3-4260-9BBA-96810A46C89E}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,10 +747,8 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="K2" t="s">
         <v>49</v>
       </c>
@@ -984,10 +961,8 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="K16" t="s">
         <v>63</v>
       </c>
@@ -1048,10 +1023,8 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="K20" t="s">
         <v>67</v>
       </c>
@@ -1067,10 +1040,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="K21" t="s">
         <v>68</v>
       </c>
@@ -1206,11 +1177,9 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>92</v>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="K30" t="s">
         <v>77</v>
@@ -1240,10 +1209,8 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="K32" t="s">
         <v>79</v>
       </c>
@@ -1272,10 +1239,8 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="K34" t="s">
         <v>81</v>
       </c>
@@ -1304,10 +1269,8 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="K36" t="s">
         <v>83</v>
       </c>
